--- a/doc/unfinished/200系_ユースケース構成.xlsx
+++ b/doc/unfinished/200系_ユースケース構成.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="112">
   <si>
     <t>画面ID</t>
     <rPh sb="0" eb="2">
@@ -629,14 +629,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>HotelLogic</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ShoppingCartLogic</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>orderDetail</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -661,7 +653,27 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ToOrderDetailAction</t>
+    <t>ShoppingCartAddLogic</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HotelDetailLogic</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ShoppingCartBuyLogic</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ShoppingCartConfirmLogic</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OrderDetailLogic</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ToOrderListAction</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1060,6 +1072,15 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1072,20 +1093,47 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1093,50 +1141,14 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2843,8 +2855,8 @@
   </sheetPr>
   <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18:E19"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16:G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2869,20 +2881,20 @@
         <v>9</v>
       </c>
       <c r="B2" s="17"/>
-      <c r="C2" s="58" t="s">
+      <c r="C2" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="59"/>
+      <c r="D2" s="57"/>
       <c r="E2" s="26" t="s">
         <v>19</v>
       </c>
       <c r="F2" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="58" t="s">
+      <c r="G2" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="59"/>
+      <c r="H2" s="57"/>
       <c r="I2" s="22"/>
       <c r="J2" s="23"/>
       <c r="K2" s="23"/>
@@ -2915,55 +2927,55 @@
       <c r="A5" s="4"/>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="60" t="s">
+      <c r="A6" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="60" t="s">
+      <c r="B6" s="58" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="60" t="s">
+      <c r="D6" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="60" t="s">
+      <c r="E6" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="62" t="s">
+      <c r="F6" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="63"/>
-      <c r="H6" s="64" t="s">
+      <c r="G6" s="61"/>
+      <c r="H6" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="65"/>
-      <c r="J6" s="68" t="s">
+      <c r="I6" s="63"/>
+      <c r="J6" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="K6" s="69"/>
-      <c r="L6" s="68" t="s">
+      <c r="K6" s="46"/>
+      <c r="L6" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="M6" s="70"/>
-      <c r="N6" s="69"/>
+      <c r="M6" s="47"/>
+      <c r="N6" s="46"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="61"/>
-      <c r="B7" s="61"/>
+      <c r="A7" s="59"/>
+      <c r="B7" s="59"/>
       <c r="C7" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
       <c r="F7" s="27" t="s">
         <v>6</v>
       </c>
       <c r="G7" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="66"/>
-      <c r="I7" s="67"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="65"/>
       <c r="J7" s="5" t="s">
         <v>12</v>
       </c>
@@ -2981,25 +2993,25 @@
       </c>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="47" t="s">
+      <c r="A8" s="50" t="s">
         <v>28</v>
       </c>
       <c r="B8" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="47" t="s">
+      <c r="C8" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="D8" s="49" t="s">
+      <c r="D8" s="54" t="s">
         <v>76</v>
       </c>
-      <c r="E8" s="45" t="s">
+      <c r="E8" s="48" t="s">
         <v>90</v>
       </c>
-      <c r="F8" s="54" t="s">
+      <c r="F8" s="66" t="s">
         <v>88</v>
       </c>
-      <c r="G8" s="45" t="s">
+      <c r="G8" s="48" t="s">
         <v>88</v>
       </c>
       <c r="H8" s="2" t="s">
@@ -3015,15 +3027,15 @@
       <c r="N8" s="7"/>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="48"/>
+      <c r="A9" s="51"/>
       <c r="B9" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="48"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="46"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="67"/>
+      <c r="G9" s="49"/>
       <c r="H9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3037,25 +3049,25 @@
       <c r="N9" s="8"/>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="47" t="s">
+      <c r="A10" s="50" t="s">
         <v>79</v>
       </c>
       <c r="B10" s="43" t="s">
         <v>78</v>
       </c>
-      <c r="C10" s="47" t="s">
+      <c r="C10" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="D10" s="49" t="s">
+      <c r="D10" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="45" t="s">
+      <c r="E10" s="48" t="s">
         <v>95</v>
       </c>
-      <c r="F10" s="54" t="s">
-        <v>100</v>
-      </c>
-      <c r="G10" s="45" t="s">
+      <c r="F10" s="66" t="s">
+        <v>107</v>
+      </c>
+      <c r="G10" s="48" t="s">
         <v>96</v>
       </c>
       <c r="H10" s="2" t="s">
@@ -3071,15 +3083,15 @@
       <c r="N10" s="7"/>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="48"/>
+      <c r="A11" s="51"/>
       <c r="B11" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="C11" s="48"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="55"/>
-      <c r="G11" s="46"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="67"/>
+      <c r="G11" s="49"/>
       <c r="H11" s="3" t="s">
         <v>51</v>
       </c>
@@ -3093,25 +3105,25 @@
       <c r="N11" s="8"/>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="47" t="s">
+      <c r="A12" s="50" t="s">
         <v>81</v>
       </c>
       <c r="B12" s="43" t="s">
         <v>83</v>
       </c>
-      <c r="C12" s="47" t="s">
+      <c r="C12" s="50" t="s">
         <v>80</v>
       </c>
-      <c r="D12" s="49" t="s">
+      <c r="D12" s="54" t="s">
         <v>84</v>
       </c>
-      <c r="E12" s="45" t="s">
+      <c r="E12" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="F12" s="51" t="s">
-        <v>101</v>
-      </c>
-      <c r="G12" s="45" t="s">
+      <c r="F12" s="68" t="s">
+        <v>106</v>
+      </c>
+      <c r="G12" s="48" t="s">
         <v>92</v>
       </c>
       <c r="H12" s="2" t="s">
@@ -3127,15 +3139,15 @@
       <c r="N12" s="7"/>
     </row>
     <row r="13" spans="1:14">
-      <c r="A13" s="48"/>
+      <c r="A13" s="51"/>
       <c r="B13" s="44" t="s">
         <v>87</v>
       </c>
-      <c r="C13" s="48"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="46"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="49"/>
       <c r="H13" s="3" t="s">
         <v>51</v>
       </c>
@@ -3149,23 +3161,25 @@
       <c r="N13" s="8"/>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" s="47" t="s">
+      <c r="A14" s="50" t="s">
         <v>28</v>
       </c>
       <c r="B14" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="47" t="s">
+      <c r="C14" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="49" t="s">
+      <c r="D14" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="E14" s="45" t="s">
+      <c r="E14" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="F14" s="52"/>
-      <c r="G14" s="45" t="s">
+      <c r="F14" s="69" t="s">
+        <v>108</v>
+      </c>
+      <c r="G14" s="48" t="s">
         <v>97</v>
       </c>
       <c r="H14" s="2" t="s">
@@ -3181,15 +3195,15 @@
       <c r="N14" s="7"/>
     </row>
     <row r="15" spans="1:14">
-      <c r="A15" s="48"/>
+      <c r="A15" s="51"/>
       <c r="B15" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="48"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="52"/>
-      <c r="G15" s="46"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="70"/>
+      <c r="G15" s="49"/>
       <c r="H15" s="3" t="s">
         <v>51</v>
       </c>
@@ -3202,24 +3216,26 @@
       <c r="M15" s="8"/>
       <c r="N15" s="8"/>
     </row>
-    <row r="16" spans="1:14">
-      <c r="A16" s="47" t="s">
+    <row r="16" spans="1:14" ht="27">
+      <c r="A16" s="50" t="s">
         <v>30</v>
       </c>
       <c r="B16" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="47" t="s">
+      <c r="C16" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="56" t="s">
+      <c r="D16" s="52" t="s">
         <v>64</v>
       </c>
-      <c r="E16" s="45" t="s">
+      <c r="E16" s="48" t="s">
         <v>91</v>
       </c>
-      <c r="F16" s="52"/>
-      <c r="G16" s="45" t="s">
+      <c r="F16" s="69" t="s">
+        <v>109</v>
+      </c>
+      <c r="G16" s="48" t="s">
         <v>98</v>
       </c>
       <c r="H16" s="2" t="s">
@@ -3235,15 +3251,15 @@
       <c r="N16" s="9"/>
     </row>
     <row r="17" spans="1:14">
-      <c r="A17" s="48"/>
+      <c r="A17" s="51"/>
       <c r="B17" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="48"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="53"/>
-      <c r="G17" s="46"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="70"/>
+      <c r="G17" s="49"/>
       <c r="H17" s="3" t="s">
         <v>51</v>
       </c>
@@ -3257,25 +3273,25 @@
       <c r="N17" s="10"/>
     </row>
     <row r="18" spans="1:14">
-      <c r="A18" s="47" t="s">
+      <c r="A18" s="50" t="s">
         <v>55</v>
       </c>
       <c r="B18" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="49" t="s">
+      <c r="C18" s="54" t="s">
         <v>62</v>
       </c>
-      <c r="D18" s="56" t="s">
+      <c r="D18" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="E18" s="45" t="s">
+      <c r="E18" s="48" t="s">
         <v>89</v>
       </c>
-      <c r="F18" s="54" t="s">
+      <c r="F18" s="66" t="s">
         <v>88</v>
       </c>
-      <c r="G18" s="45" t="s">
+      <c r="G18" s="48" t="s">
         <v>88</v>
       </c>
       <c r="H18" s="2" t="s">
@@ -3291,15 +3307,15 @@
       <c r="N18" s="9"/>
     </row>
     <row r="19" spans="1:14">
-      <c r="A19" s="48"/>
+      <c r="A19" s="51"/>
       <c r="B19" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="50"/>
-      <c r="D19" s="57"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="46"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="67"/>
+      <c r="G19" s="49"/>
       <c r="H19" s="3" t="s">
         <v>22</v>
       </c>
@@ -3331,7 +3347,34 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="44">
+  <mergeCells count="43">
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I7"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="L6:N6"/>
     <mergeCell ref="G16:G17"/>
@@ -3346,36 +3389,8 @@
     <mergeCell ref="G14:G15"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I7"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F17"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3391,8 +3406,8 @@
   </sheetPr>
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView showGridLines="0" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3417,20 +3432,20 @@
         <v>9</v>
       </c>
       <c r="B2" s="17"/>
-      <c r="C2" s="58" t="s">
+      <c r="C2" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="59"/>
+      <c r="D2" s="57"/>
       <c r="E2" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F2" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="58" t="s">
+      <c r="G2" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="59"/>
+      <c r="H2" s="57"/>
       <c r="I2" s="22"/>
       <c r="J2" s="23"/>
       <c r="K2" s="23"/>
@@ -3463,55 +3478,55 @@
       <c r="A5" s="4"/>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="60" t="s">
+      <c r="A6" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="60" t="s">
+      <c r="B6" s="58" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="60" t="s">
+      <c r="D6" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="60" t="s">
+      <c r="E6" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="62" t="s">
+      <c r="F6" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="63"/>
-      <c r="H6" s="64" t="s">
+      <c r="G6" s="61"/>
+      <c r="H6" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="65"/>
-      <c r="J6" s="68" t="s">
+      <c r="I6" s="63"/>
+      <c r="J6" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="K6" s="69"/>
-      <c r="L6" s="68" t="s">
+      <c r="K6" s="46"/>
+      <c r="L6" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="M6" s="70"/>
-      <c r="N6" s="69"/>
+      <c r="M6" s="47"/>
+      <c r="N6" s="46"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="61"/>
-      <c r="B7" s="61"/>
+      <c r="A7" s="59"/>
+      <c r="B7" s="59"/>
       <c r="C7" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
       <c r="F7" s="31" t="s">
         <v>6</v>
       </c>
       <c r="G7" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="66"/>
-      <c r="I7" s="67"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="65"/>
       <c r="J7" s="5" t="s">
         <v>12</v>
       </c>
@@ -3529,26 +3544,26 @@
       </c>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="47" t="s">
+      <c r="A8" s="50" t="s">
         <v>32</v>
       </c>
       <c r="B8" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="47" t="s">
+      <c r="C8" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="47" t="s">
+      <c r="D8" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="45" t="s">
+      <c r="E8" s="48" t="s">
         <v>99</v>
       </c>
-      <c r="F8" s="45" t="s">
-        <v>103</v>
-      </c>
-      <c r="G8" s="45" t="s">
-        <v>102</v>
+      <c r="F8" s="48" t="s">
+        <v>110</v>
+      </c>
+      <c r="G8" s="48" t="s">
+        <v>100</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>21</v>
@@ -3563,15 +3578,15 @@
       <c r="N8" s="9"/>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="48"/>
+      <c r="A9" s="51"/>
       <c r="B9" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="46"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
       <c r="H9" s="36" t="s">
         <v>51</v>
       </c>
@@ -3585,25 +3600,25 @@
       <c r="N9" s="8"/>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="47" t="s">
+      <c r="A10" s="50" t="s">
         <v>65</v>
       </c>
       <c r="B10" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="47" t="s">
+      <c r="C10" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="49" t="s">
+      <c r="D10" s="54" t="s">
         <v>69</v>
       </c>
-      <c r="E10" s="45" t="s">
-        <v>104</v>
-      </c>
-      <c r="F10" s="45" t="s">
+      <c r="E10" s="48" t="s">
+        <v>102</v>
+      </c>
+      <c r="F10" s="48" t="s">
         <v>88</v>
       </c>
-      <c r="G10" s="45" t="s">
+      <c r="G10" s="48" t="s">
         <v>88</v>
       </c>
       <c r="H10" s="2" t="s">
@@ -3619,15 +3634,15 @@
       <c r="N10" s="9"/>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="48"/>
+      <c r="A11" s="51"/>
       <c r="B11" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="48"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="46"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="49"/>
       <c r="H11" s="3" t="s">
         <v>22</v>
       </c>
@@ -3641,26 +3656,26 @@
       <c r="N11" s="8"/>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="47" t="s">
+      <c r="A12" s="50" t="s">
         <v>67</v>
       </c>
       <c r="B12" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="C12" s="47" t="s">
+      <c r="C12" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="D12" s="49" t="s">
+      <c r="D12" s="54" t="s">
         <v>70</v>
       </c>
-      <c r="E12" s="45" t="s">
-        <v>105</v>
-      </c>
-      <c r="F12" s="45" t="s">
+      <c r="E12" s="48" t="s">
         <v>103</v>
       </c>
-      <c r="G12" s="45" t="s">
-        <v>106</v>
+      <c r="F12" s="48" t="s">
+        <v>101</v>
+      </c>
+      <c r="G12" s="48" t="s">
+        <v>104</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>21</v>
@@ -3675,15 +3690,15 @@
       <c r="N12" s="9"/>
     </row>
     <row r="13" spans="1:14">
-      <c r="A13" s="48"/>
+      <c r="A13" s="51"/>
       <c r="B13" s="42" t="s">
         <v>73</v>
       </c>
-      <c r="C13" s="48"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="46"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
       <c r="H13" s="3" t="s">
         <v>22</v>
       </c>
@@ -3697,25 +3712,25 @@
       <c r="N13" s="8"/>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" s="47" t="s">
+      <c r="A14" s="50" t="s">
         <v>66</v>
       </c>
       <c r="B14" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="C14" s="49" t="s">
+      <c r="C14" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="D14" s="56" t="s">
+      <c r="D14" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="E14" s="45" t="s">
+      <c r="E14" s="48" t="s">
         <v>89</v>
       </c>
-      <c r="F14" s="45" t="s">
-        <v>107</v>
-      </c>
-      <c r="G14" s="45" t="s">
+      <c r="F14" s="48" t="s">
+        <v>105</v>
+      </c>
+      <c r="G14" s="48" t="s">
         <v>88</v>
       </c>
       <c r="H14" s="2" t="s">
@@ -3731,15 +3746,15 @@
       <c r="N14" s="9"/>
     </row>
     <row r="15" spans="1:14">
-      <c r="A15" s="48"/>
+      <c r="A15" s="51"/>
       <c r="B15" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="50"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="49"/>
       <c r="H15" s="3" t="s">
         <v>22</v>
       </c>
@@ -3772,28 +3787,6 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="H6:I7"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:G6"/>
     <mergeCell ref="G12:G13"/>
     <mergeCell ref="G14:G15"/>
     <mergeCell ref="A14:A15"/>
@@ -3806,6 +3799,28 @@
     <mergeCell ref="D12:D13"/>
     <mergeCell ref="E12:E13"/>
     <mergeCell ref="F12:F13"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="H6:I7"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3822,7 +3837,7 @@
   <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="E8" sqref="E8:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3847,20 +3862,20 @@
         <v>9</v>
       </c>
       <c r="B2" s="17"/>
-      <c r="C2" s="58" t="s">
+      <c r="C2" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="59"/>
+      <c r="D2" s="57"/>
       <c r="E2" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F2" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="58" t="s">
+      <c r="G2" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="59"/>
+      <c r="H2" s="57"/>
       <c r="I2" s="22"/>
       <c r="J2" s="23"/>
       <c r="K2" s="23"/>
@@ -3893,55 +3908,55 @@
       <c r="A5" s="4"/>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="60" t="s">
+      <c r="A6" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="60" t="s">
+      <c r="B6" s="58" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="60" t="s">
+      <c r="D6" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="60" t="s">
+      <c r="E6" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="62" t="s">
+      <c r="F6" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="63"/>
-      <c r="H6" s="64" t="s">
+      <c r="G6" s="61"/>
+      <c r="H6" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="65"/>
-      <c r="J6" s="68" t="s">
+      <c r="I6" s="63"/>
+      <c r="J6" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="K6" s="69"/>
-      <c r="L6" s="68" t="s">
+      <c r="K6" s="46"/>
+      <c r="L6" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="M6" s="70"/>
-      <c r="N6" s="69"/>
+      <c r="M6" s="47"/>
+      <c r="N6" s="46"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="61"/>
-      <c r="B7" s="61"/>
+      <c r="A7" s="59"/>
+      <c r="B7" s="59"/>
       <c r="C7" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
       <c r="F7" s="31" t="s">
         <v>6</v>
       </c>
       <c r="G7" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="66"/>
-      <c r="I7" s="67"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="65"/>
       <c r="J7" s="5" t="s">
         <v>12</v>
       </c>
@@ -3959,25 +3974,25 @@
       </c>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="47" t="s">
+      <c r="A8" s="50" t="s">
         <v>45</v>
       </c>
       <c r="B8" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="47" t="s">
+      <c r="C8" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="D8" s="49" t="s">
+      <c r="D8" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="45" t="s">
-        <v>108</v>
-      </c>
-      <c r="F8" s="45" t="s">
+      <c r="E8" s="48" t="s">
+        <v>111</v>
+      </c>
+      <c r="F8" s="48" t="s">
         <v>88</v>
       </c>
-      <c r="G8" s="45" t="s">
+      <c r="G8" s="48" t="s">
         <v>88</v>
       </c>
       <c r="H8" s="2" t="s">
@@ -3993,15 +4008,15 @@
       <c r="N8" s="7"/>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="48"/>
+      <c r="A9" s="51"/>
       <c r="B9" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="48"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="46"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
       <c r="H9" s="3" t="s">
         <v>22</v>
       </c>
@@ -4015,25 +4030,25 @@
       <c r="N9" s="8"/>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="47" t="s">
+      <c r="A10" s="50" t="s">
         <v>59</v>
       </c>
       <c r="B10" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="C10" s="49" t="s">
+      <c r="C10" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="D10" s="56" t="s">
+      <c r="D10" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="E10" s="45" t="s">
+      <c r="E10" s="48" t="s">
         <v>89</v>
       </c>
-      <c r="F10" s="45" t="s">
+      <c r="F10" s="48" t="s">
         <v>88</v>
       </c>
-      <c r="G10" s="45" t="s">
+      <c r="G10" s="48" t="s">
         <v>88</v>
       </c>
       <c r="H10" s="2" t="s">
@@ -4049,15 +4064,15 @@
       <c r="N10" s="7"/>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="48"/>
+      <c r="A11" s="51"/>
       <c r="B11" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="50"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="46"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="49"/>
       <c r="H11" s="3" t="s">
         <v>22</v>
       </c>
@@ -4090,6 +4105,20 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I7"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="L6:N6"/>
     <mergeCell ref="A8:A9"/>
@@ -4098,20 +4127,6 @@
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="G8:G9"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I7"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/unfinished/200系_ユースケース構成.xlsx
+++ b/doc/unfinished/200系_ユースケース構成.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="2535" yWindow="0" windowWidth="17970" windowHeight="8925"/>
+    <workbookView xWindow="5130" yWindow="3390" windowWidth="15210" windowHeight="6345" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="UC201" sheetId="4" r:id="rId1"/>
     <sheet name="UC202" sheetId="8" r:id="rId2"/>
     <sheet name="UC203" sheetId="6" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="145621"/>
+  <oleSize ref="A1:G19"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="118">
   <si>
     <t>画面ID</t>
     <rPh sb="0" eb="2">
@@ -674,6 +675,36 @@
   </si>
   <si>
     <t>ToOrderListAction</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Name,MemberCode</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>非ログイン時はなし</t>
+    <rPh sb="0" eb="1">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Name,MemberCode</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -966,7 +997,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1072,6 +1103,75 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1081,75 +1181,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -2855,8 +2887,8 @@
   </sheetPr>
   <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16:G17"/>
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2881,20 +2913,20 @@
         <v>9</v>
       </c>
       <c r="B2" s="17"/>
-      <c r="C2" s="56" t="s">
+      <c r="C2" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="57"/>
+      <c r="D2" s="59"/>
       <c r="E2" s="26" t="s">
         <v>19</v>
       </c>
       <c r="F2" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="56" t="s">
+      <c r="G2" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="57"/>
+      <c r="H2" s="59"/>
       <c r="I2" s="22"/>
       <c r="J2" s="23"/>
       <c r="K2" s="23"/>
@@ -2927,55 +2959,55 @@
       <c r="A5" s="4"/>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="58" t="s">
+      <c r="A6" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="58" t="s">
+      <c r="B6" s="60" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="58" t="s">
+      <c r="D6" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="58" t="s">
+      <c r="E6" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="60" t="s">
+      <c r="F6" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="61"/>
-      <c r="H6" s="62" t="s">
+      <c r="G6" s="63"/>
+      <c r="H6" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="63"/>
-      <c r="J6" s="45" t="s">
+      <c r="I6" s="65"/>
+      <c r="J6" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="K6" s="46"/>
-      <c r="L6" s="45" t="s">
+      <c r="K6" s="69"/>
+      <c r="L6" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="M6" s="47"/>
-      <c r="N6" s="46"/>
+      <c r="M6" s="70"/>
+      <c r="N6" s="69"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="59"/>
-      <c r="B7" s="59"/>
+      <c r="A7" s="61"/>
+      <c r="B7" s="61"/>
       <c r="C7" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
       <c r="F7" s="27" t="s">
         <v>6</v>
       </c>
       <c r="G7" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="64"/>
-      <c r="I7" s="65"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="67"/>
       <c r="J7" s="5" t="s">
         <v>12</v>
       </c>
@@ -3002,13 +3034,13 @@
       <c r="C8" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="D8" s="54" t="s">
+      <c r="D8" s="52" t="s">
         <v>76</v>
       </c>
       <c r="E8" s="48" t="s">
         <v>90</v>
       </c>
-      <c r="F8" s="66" t="s">
+      <c r="F8" s="54" t="s">
         <v>88</v>
       </c>
       <c r="G8" s="48" t="s">
@@ -3020,11 +3052,21 @@
       <c r="I8" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
+      <c r="J8" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="51"/>
@@ -3032,9 +3074,9 @@
         <v>27</v>
       </c>
       <c r="C9" s="51"/>
-      <c r="D9" s="55"/>
+      <c r="D9" s="53"/>
       <c r="E9" s="49"/>
-      <c r="F9" s="67"/>
+      <c r="F9" s="55"/>
       <c r="G9" s="49"/>
       <c r="H9" s="3" t="s">
         <v>51</v>
@@ -3045,7 +3087,9 @@
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
       <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
+      <c r="M9" s="8" t="s">
+        <v>115</v>
+      </c>
       <c r="N9" s="8"/>
     </row>
     <row r="10" spans="1:14">
@@ -3058,13 +3102,13 @@
       <c r="C10" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="D10" s="54" t="s">
+      <c r="D10" s="52" t="s">
         <v>38</v>
       </c>
       <c r="E10" s="48" t="s">
         <v>95</v>
       </c>
-      <c r="F10" s="66" t="s">
+      <c r="F10" s="54" t="s">
         <v>107</v>
       </c>
       <c r="G10" s="48" t="s">
@@ -3088,9 +3132,9 @@
         <v>77</v>
       </c>
       <c r="C11" s="51"/>
-      <c r="D11" s="55"/>
+      <c r="D11" s="53"/>
       <c r="E11" s="49"/>
-      <c r="F11" s="67"/>
+      <c r="F11" s="55"/>
       <c r="G11" s="49"/>
       <c r="H11" s="3" t="s">
         <v>51</v>
@@ -3114,13 +3158,13 @@
       <c r="C12" s="50" t="s">
         <v>80</v>
       </c>
-      <c r="D12" s="54" t="s">
+      <c r="D12" s="52" t="s">
         <v>84</v>
       </c>
       <c r="E12" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="F12" s="68" t="s">
+      <c r="F12" s="45" t="s">
         <v>106</v>
       </c>
       <c r="G12" s="48" t="s">
@@ -3144,9 +3188,9 @@
         <v>87</v>
       </c>
       <c r="C13" s="51"/>
-      <c r="D13" s="55"/>
+      <c r="D13" s="53"/>
       <c r="E13" s="49"/>
-      <c r="F13" s="70"/>
+      <c r="F13" s="47"/>
       <c r="G13" s="49"/>
       <c r="H13" s="3" t="s">
         <v>51</v>
@@ -3170,13 +3214,13 @@
       <c r="C14" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="54" t="s">
+      <c r="D14" s="52" t="s">
         <v>63</v>
       </c>
       <c r="E14" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="F14" s="69" t="s">
+      <c r="F14" s="46" t="s">
         <v>108</v>
       </c>
       <c r="G14" s="48" t="s">
@@ -3200,9 +3244,9 @@
         <v>27</v>
       </c>
       <c r="C15" s="51"/>
-      <c r="D15" s="55"/>
+      <c r="D15" s="53"/>
       <c r="E15" s="49"/>
-      <c r="F15" s="70"/>
+      <c r="F15" s="47"/>
       <c r="G15" s="49"/>
       <c r="H15" s="3" t="s">
         <v>51</v>
@@ -3226,13 +3270,13 @@
       <c r="C16" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="52" t="s">
+      <c r="D16" s="56" t="s">
         <v>64</v>
       </c>
       <c r="E16" s="48" t="s">
         <v>91</v>
       </c>
-      <c r="F16" s="69" t="s">
+      <c r="F16" s="46" t="s">
         <v>109</v>
       </c>
       <c r="G16" s="48" t="s">
@@ -3256,9 +3300,9 @@
         <v>40</v>
       </c>
       <c r="C17" s="51"/>
-      <c r="D17" s="53"/>
+      <c r="D17" s="57"/>
       <c r="E17" s="49"/>
-      <c r="F17" s="70"/>
+      <c r="F17" s="47"/>
       <c r="G17" s="49"/>
       <c r="H17" s="3" t="s">
         <v>51</v>
@@ -3279,16 +3323,16 @@
       <c r="B18" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="54" t="s">
+      <c r="C18" s="52" t="s">
         <v>62</v>
       </c>
-      <c r="D18" s="52" t="s">
+      <c r="D18" s="56" t="s">
         <v>56</v>
       </c>
       <c r="E18" s="48" t="s">
         <v>89</v>
       </c>
-      <c r="F18" s="66" t="s">
+      <c r="F18" s="54" t="s">
         <v>88</v>
       </c>
       <c r="G18" s="48" t="s">
@@ -3300,21 +3344,31 @@
       <c r="I18" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
+      <c r="J18" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="K18" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="L18" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="M18" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="N18" s="9" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="51"/>
       <c r="B19" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="55"/>
-      <c r="D19" s="53"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="57"/>
       <c r="E19" s="49"/>
-      <c r="F19" s="67"/>
+      <c r="F19" s="55"/>
       <c r="G19" s="49"/>
       <c r="H19" s="3" t="s">
         <v>22</v>
@@ -3348,33 +3402,6 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I7"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="L6:N6"/>
     <mergeCell ref="G16:G17"/>
@@ -3391,6 +3418,33 @@
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="E10:E11"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I7"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3406,8 +3460,8 @@
   </sheetPr>
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8:F9"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3432,20 +3486,20 @@
         <v>9</v>
       </c>
       <c r="B2" s="17"/>
-      <c r="C2" s="56" t="s">
+      <c r="C2" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="57"/>
+      <c r="D2" s="59"/>
       <c r="E2" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F2" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="56" t="s">
+      <c r="G2" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="57"/>
+      <c r="H2" s="59"/>
       <c r="I2" s="22"/>
       <c r="J2" s="23"/>
       <c r="K2" s="23"/>
@@ -3478,55 +3532,55 @@
       <c r="A5" s="4"/>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="58" t="s">
+      <c r="A6" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="58" t="s">
+      <c r="B6" s="60" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="58" t="s">
+      <c r="D6" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="58" t="s">
+      <c r="E6" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="60" t="s">
+      <c r="F6" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="61"/>
-      <c r="H6" s="62" t="s">
+      <c r="G6" s="63"/>
+      <c r="H6" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="63"/>
-      <c r="J6" s="45" t="s">
+      <c r="I6" s="65"/>
+      <c r="J6" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="K6" s="46"/>
-      <c r="L6" s="45" t="s">
+      <c r="K6" s="69"/>
+      <c r="L6" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="M6" s="47"/>
-      <c r="N6" s="46"/>
+      <c r="M6" s="70"/>
+      <c r="N6" s="69"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="59"/>
-      <c r="B7" s="59"/>
+      <c r="A7" s="61"/>
+      <c r="B7" s="61"/>
       <c r="C7" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
       <c r="F7" s="31" t="s">
         <v>6</v>
       </c>
       <c r="G7" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="64"/>
-      <c r="I7" s="65"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="67"/>
       <c r="J7" s="5" t="s">
         <v>12</v>
       </c>
@@ -3609,7 +3663,7 @@
       <c r="C10" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="54" t="s">
+      <c r="D10" s="52" t="s">
         <v>69</v>
       </c>
       <c r="E10" s="48" t="s">
@@ -3627,11 +3681,21 @@
       <c r="I10" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
+      <c r="J10" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="M10" s="71" t="s">
+        <v>114</v>
+      </c>
+      <c r="N10" s="9" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="51"/>
@@ -3639,7 +3703,7 @@
         <v>39</v>
       </c>
       <c r="C11" s="51"/>
-      <c r="D11" s="55"/>
+      <c r="D11" s="53"/>
       <c r="E11" s="49"/>
       <c r="F11" s="49"/>
       <c r="G11" s="49"/>
@@ -3665,7 +3729,7 @@
       <c r="C12" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="D12" s="54" t="s">
+      <c r="D12" s="52" t="s">
         <v>70</v>
       </c>
       <c r="E12" s="48" t="s">
@@ -3695,7 +3759,7 @@
         <v>73</v>
       </c>
       <c r="C13" s="51"/>
-      <c r="D13" s="55"/>
+      <c r="D13" s="53"/>
       <c r="E13" s="49"/>
       <c r="F13" s="49"/>
       <c r="G13" s="49"/>
@@ -3718,10 +3782,10 @@
       <c r="B14" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="C14" s="54" t="s">
+      <c r="C14" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="D14" s="52" t="s">
+      <c r="D14" s="56" t="s">
         <v>56</v>
       </c>
       <c r="E14" s="48" t="s">
@@ -3739,19 +3803,29 @@
       <c r="I14" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
+      <c r="J14" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="K14" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="L14" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="M14" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="N14" s="9" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="51"/>
       <c r="B15" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="55"/>
-      <c r="D15" s="53"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="57"/>
       <c r="E15" s="49"/>
       <c r="F15" s="49"/>
       <c r="G15" s="49"/>
@@ -3787,6 +3861,28 @@
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="H6:I7"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:G6"/>
     <mergeCell ref="G12:G13"/>
     <mergeCell ref="G14:G15"/>
     <mergeCell ref="A14:A15"/>
@@ -3799,28 +3895,6 @@
     <mergeCell ref="D12:D13"/>
     <mergeCell ref="E12:E13"/>
     <mergeCell ref="F12:F13"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="H6:I7"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3836,8 +3910,8 @@
   </sheetPr>
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8:E9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3862,20 +3936,20 @@
         <v>9</v>
       </c>
       <c r="B2" s="17"/>
-      <c r="C2" s="56" t="s">
+      <c r="C2" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="57"/>
+      <c r="D2" s="59"/>
       <c r="E2" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F2" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="56" t="s">
+      <c r="G2" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="57"/>
+      <c r="H2" s="59"/>
       <c r="I2" s="22"/>
       <c r="J2" s="23"/>
       <c r="K2" s="23"/>
@@ -3908,55 +3982,55 @@
       <c r="A5" s="4"/>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="58" t="s">
+      <c r="A6" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="58" t="s">
+      <c r="B6" s="60" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="58" t="s">
+      <c r="D6" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="58" t="s">
+      <c r="E6" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="60" t="s">
+      <c r="F6" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="61"/>
-      <c r="H6" s="62" t="s">
+      <c r="G6" s="63"/>
+      <c r="H6" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="63"/>
-      <c r="J6" s="45" t="s">
+      <c r="I6" s="65"/>
+      <c r="J6" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="K6" s="46"/>
-      <c r="L6" s="45" t="s">
+      <c r="K6" s="69"/>
+      <c r="L6" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="M6" s="47"/>
-      <c r="N6" s="46"/>
+      <c r="M6" s="70"/>
+      <c r="N6" s="69"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="59"/>
-      <c r="B7" s="59"/>
+      <c r="A7" s="61"/>
+      <c r="B7" s="61"/>
       <c r="C7" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
       <c r="F7" s="31" t="s">
         <v>6</v>
       </c>
       <c r="G7" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="64"/>
-      <c r="I7" s="65"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="67"/>
       <c r="J7" s="5" t="s">
         <v>12</v>
       </c>
@@ -3983,7 +4057,7 @@
       <c r="C8" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="D8" s="54" t="s">
+      <c r="D8" s="52" t="s">
         <v>50</v>
       </c>
       <c r="E8" s="48" t="s">
@@ -4001,11 +4075,21 @@
       <c r="I8" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
+      <c r="J8" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="51"/>
@@ -4013,7 +4097,7 @@
         <v>46</v>
       </c>
       <c r="C9" s="51"/>
-      <c r="D9" s="55"/>
+      <c r="D9" s="53"/>
       <c r="E9" s="49"/>
       <c r="F9" s="49"/>
       <c r="G9" s="49"/>
@@ -4036,10 +4120,10 @@
       <c r="B10" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="C10" s="54" t="s">
+      <c r="C10" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="D10" s="52" t="s">
+      <c r="D10" s="56" t="s">
         <v>56</v>
       </c>
       <c r="E10" s="48" t="s">
@@ -4057,19 +4141,29 @@
       <c r="I10" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
+      <c r="J10" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="M10" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="N10" s="7" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="51"/>
       <c r="B11" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="55"/>
-      <c r="D11" s="53"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="57"/>
       <c r="E11" s="49"/>
       <c r="F11" s="49"/>
       <c r="G11" s="49"/>
@@ -4105,12 +4199,14 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="A6:A7"/>
@@ -4119,14 +4215,12 @@
     <mergeCell ref="E6:E7"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="H6:I7"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/unfinished/200系_ユースケース構成.xlsx
+++ b/doc/unfinished/200系_ユースケース構成.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="5130" yWindow="3390" windowWidth="15210" windowHeight="6345" activeTab="2"/>
+    <workbookView xWindow="5130" yWindow="3390" windowWidth="15210" windowHeight="6345"/>
   </bookViews>
   <sheets>
     <sheet name="UC201" sheetId="4" r:id="rId1"/>
@@ -12,12 +12,11 @@
     <sheet name="UC203" sheetId="6" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
-  <oleSize ref="A1:G19"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="117">
   <si>
     <t>画面ID</t>
     <rPh sb="0" eb="2">
@@ -686,10 +685,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Name,MemberCode</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>非ログイン時はなし</t>
     <rPh sb="0" eb="1">
       <t>ヒ</t>
@@ -704,7 +699,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Name,MemberCode</t>
+    <t>Member</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1112,6 +1107,16 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1124,64 +1129,54 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -2887,8 +2882,8 @@
   </sheetPr>
   <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2913,20 +2908,20 @@
         <v>9</v>
       </c>
       <c r="B2" s="17"/>
-      <c r="C2" s="58" t="s">
+      <c r="C2" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="59"/>
+      <c r="D2" s="61"/>
       <c r="E2" s="26" t="s">
         <v>19</v>
       </c>
       <c r="F2" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="58" t="s">
+      <c r="G2" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="59"/>
+      <c r="H2" s="61"/>
       <c r="I2" s="22"/>
       <c r="J2" s="23"/>
       <c r="K2" s="23"/>
@@ -2959,55 +2954,55 @@
       <c r="A5" s="4"/>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="60" t="s">
+      <c r="A6" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="60" t="s">
+      <c r="B6" s="62" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="60" t="s">
+      <c r="D6" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="60" t="s">
+      <c r="E6" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="62" t="s">
+      <c r="F6" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="63"/>
-      <c r="H6" s="64" t="s">
+      <c r="G6" s="65"/>
+      <c r="H6" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="65"/>
-      <c r="J6" s="68" t="s">
+      <c r="I6" s="67"/>
+      <c r="J6" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="K6" s="69"/>
-      <c r="L6" s="68" t="s">
+      <c r="K6" s="50"/>
+      <c r="L6" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="M6" s="70"/>
-      <c r="N6" s="69"/>
+      <c r="M6" s="51"/>
+      <c r="N6" s="50"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="61"/>
-      <c r="B7" s="61"/>
+      <c r="A7" s="63"/>
+      <c r="B7" s="63"/>
       <c r="C7" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
       <c r="F7" s="27" t="s">
         <v>6</v>
       </c>
       <c r="G7" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="66"/>
-      <c r="I7" s="67"/>
+      <c r="H7" s="68"/>
+      <c r="I7" s="69"/>
       <c r="J7" s="5" t="s">
         <v>12</v>
       </c>
@@ -3025,25 +3020,25 @@
       </c>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="50" t="s">
+      <c r="A8" s="54" t="s">
         <v>28</v>
       </c>
       <c r="B8" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="50" t="s">
+      <c r="C8" s="54" t="s">
         <v>75</v>
       </c>
-      <c r="D8" s="52" t="s">
+      <c r="D8" s="58" t="s">
         <v>76</v>
       </c>
-      <c r="E8" s="48" t="s">
+      <c r="E8" s="52" t="s">
         <v>90</v>
       </c>
-      <c r="F8" s="54" t="s">
+      <c r="F8" s="70" t="s">
         <v>88</v>
       </c>
-      <c r="G8" s="48" t="s">
+      <c r="G8" s="52" t="s">
         <v>88</v>
       </c>
       <c r="H8" s="2" t="s">
@@ -3062,22 +3057,22 @@
         <v>113</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="N8" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="51"/>
+      <c r="A9" s="55"/>
       <c r="B9" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="51"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="49"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="71"/>
+      <c r="G9" s="53"/>
       <c r="H9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3088,30 +3083,30 @@
       <c r="K9" s="8"/>
       <c r="L9" s="8"/>
       <c r="M9" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N9" s="8"/>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="50" t="s">
+      <c r="A10" s="54" t="s">
         <v>79</v>
       </c>
       <c r="B10" s="43" t="s">
         <v>78</v>
       </c>
-      <c r="C10" s="50" t="s">
+      <c r="C10" s="54" t="s">
         <v>82</v>
       </c>
-      <c r="D10" s="52" t="s">
+      <c r="D10" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="48" t="s">
+      <c r="E10" s="52" t="s">
         <v>95</v>
       </c>
-      <c r="F10" s="54" t="s">
+      <c r="F10" s="70" t="s">
         <v>107</v>
       </c>
-      <c r="G10" s="48" t="s">
+      <c r="G10" s="52" t="s">
         <v>96</v>
       </c>
       <c r="H10" s="2" t="s">
@@ -3127,15 +3122,15 @@
       <c r="N10" s="7"/>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="51"/>
+      <c r="A11" s="55"/>
       <c r="B11" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="C11" s="51"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="55"/>
-      <c r="G11" s="49"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="71"/>
+      <c r="G11" s="53"/>
       <c r="H11" s="3" t="s">
         <v>51</v>
       </c>
@@ -3149,25 +3144,25 @@
       <c r="N11" s="8"/>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="50" t="s">
+      <c r="A12" s="54" t="s">
         <v>81</v>
       </c>
       <c r="B12" s="43" t="s">
         <v>83</v>
       </c>
-      <c r="C12" s="50" t="s">
+      <c r="C12" s="54" t="s">
         <v>80</v>
       </c>
-      <c r="D12" s="52" t="s">
+      <c r="D12" s="58" t="s">
         <v>84</v>
       </c>
-      <c r="E12" s="48" t="s">
+      <c r="E12" s="52" t="s">
         <v>93</v>
       </c>
       <c r="F12" s="45" t="s">
         <v>106</v>
       </c>
-      <c r="G12" s="48" t="s">
+      <c r="G12" s="52" t="s">
         <v>92</v>
       </c>
       <c r="H12" s="2" t="s">
@@ -3183,15 +3178,15 @@
       <c r="N12" s="7"/>
     </row>
     <row r="13" spans="1:14">
-      <c r="A13" s="51"/>
+      <c r="A13" s="55"/>
       <c r="B13" s="44" t="s">
         <v>87</v>
       </c>
-      <c r="C13" s="51"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="49"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="53"/>
       <c r="F13" s="47"/>
-      <c r="G13" s="49"/>
+      <c r="G13" s="53"/>
       <c r="H13" s="3" t="s">
         <v>51</v>
       </c>
@@ -3205,25 +3200,25 @@
       <c r="N13" s="8"/>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" s="50" t="s">
+      <c r="A14" s="54" t="s">
         <v>28</v>
       </c>
       <c r="B14" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="50" t="s">
+      <c r="C14" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="52" t="s">
+      <c r="D14" s="58" t="s">
         <v>63</v>
       </c>
-      <c r="E14" s="48" t="s">
+      <c r="E14" s="52" t="s">
         <v>94</v>
       </c>
       <c r="F14" s="46" t="s">
         <v>108</v>
       </c>
-      <c r="G14" s="48" t="s">
+      <c r="G14" s="52" t="s">
         <v>97</v>
       </c>
       <c r="H14" s="2" t="s">
@@ -3239,15 +3234,15 @@
       <c r="N14" s="7"/>
     </row>
     <row r="15" spans="1:14">
-      <c r="A15" s="51"/>
+      <c r="A15" s="55"/>
       <c r="B15" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="51"/>
-      <c r="D15" s="53"/>
-      <c r="E15" s="49"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="53"/>
       <c r="F15" s="47"/>
-      <c r="G15" s="49"/>
+      <c r="G15" s="53"/>
       <c r="H15" s="3" t="s">
         <v>51</v>
       </c>
@@ -3261,25 +3256,25 @@
       <c r="N15" s="8"/>
     </row>
     <row r="16" spans="1:14" ht="27">
-      <c r="A16" s="50" t="s">
+      <c r="A16" s="54" t="s">
         <v>30</v>
       </c>
       <c r="B16" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="50" t="s">
+      <c r="C16" s="54" t="s">
         <v>31</v>
       </c>
       <c r="D16" s="56" t="s">
         <v>64</v>
       </c>
-      <c r="E16" s="48" t="s">
+      <c r="E16" s="52" t="s">
         <v>91</v>
       </c>
       <c r="F16" s="46" t="s">
         <v>109</v>
       </c>
-      <c r="G16" s="48" t="s">
+      <c r="G16" s="52" t="s">
         <v>98</v>
       </c>
       <c r="H16" s="2" t="s">
@@ -3295,15 +3290,15 @@
       <c r="N16" s="9"/>
     </row>
     <row r="17" spans="1:14">
-      <c r="A17" s="51"/>
+      <c r="A17" s="55"/>
       <c r="B17" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="51"/>
+      <c r="C17" s="55"/>
       <c r="D17" s="57"/>
-      <c r="E17" s="49"/>
+      <c r="E17" s="53"/>
       <c r="F17" s="47"/>
-      <c r="G17" s="49"/>
+      <c r="G17" s="53"/>
       <c r="H17" s="3" t="s">
         <v>51</v>
       </c>
@@ -3317,25 +3312,25 @@
       <c r="N17" s="10"/>
     </row>
     <row r="18" spans="1:14">
-      <c r="A18" s="50" t="s">
+      <c r="A18" s="54" t="s">
         <v>55</v>
       </c>
       <c r="B18" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="52" t="s">
+      <c r="C18" s="58" t="s">
         <v>62</v>
       </c>
       <c r="D18" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="E18" s="48" t="s">
+      <c r="E18" s="52" t="s">
         <v>89</v>
       </c>
-      <c r="F18" s="54" t="s">
+      <c r="F18" s="70" t="s">
         <v>88</v>
       </c>
-      <c r="G18" s="48" t="s">
+      <c r="G18" s="52" t="s">
         <v>88</v>
       </c>
       <c r="H18" s="2" t="s">
@@ -3348,28 +3343,28 @@
         <v>113</v>
       </c>
       <c r="K18" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="L18" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="M18" s="9" t="s">
         <v>116</v>
-      </c>
-      <c r="L18" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="M18" s="9" t="s">
-        <v>114</v>
       </c>
       <c r="N18" s="9" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="19" spans="1:14">
-      <c r="A19" s="51"/>
+      <c r="A19" s="55"/>
       <c r="B19" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="53"/>
+      <c r="C19" s="59"/>
       <c r="D19" s="57"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="49"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="71"/>
+      <c r="G19" s="53"/>
       <c r="H19" s="3" t="s">
         <v>22</v>
       </c>
@@ -3402,6 +3397,33 @@
     </row>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I7"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="L6:N6"/>
     <mergeCell ref="G16:G17"/>
@@ -3418,33 +3440,6 @@
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="E10:E11"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I7"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3460,8 +3455,8 @@
   </sheetPr>
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView showGridLines="0" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3486,20 +3481,20 @@
         <v>9</v>
       </c>
       <c r="B2" s="17"/>
-      <c r="C2" s="58" t="s">
+      <c r="C2" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="59"/>
+      <c r="D2" s="61"/>
       <c r="E2" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F2" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="58" t="s">
+      <c r="G2" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="59"/>
+      <c r="H2" s="61"/>
       <c r="I2" s="22"/>
       <c r="J2" s="23"/>
       <c r="K2" s="23"/>
@@ -3532,55 +3527,55 @@
       <c r="A5" s="4"/>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="60" t="s">
+      <c r="A6" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="60" t="s">
+      <c r="B6" s="62" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="60" t="s">
+      <c r="D6" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="60" t="s">
+      <c r="E6" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="62" t="s">
+      <c r="F6" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="63"/>
-      <c r="H6" s="64" t="s">
+      <c r="G6" s="65"/>
+      <c r="H6" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="65"/>
-      <c r="J6" s="68" t="s">
+      <c r="I6" s="67"/>
+      <c r="J6" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="K6" s="69"/>
-      <c r="L6" s="68" t="s">
+      <c r="K6" s="50"/>
+      <c r="L6" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="M6" s="70"/>
-      <c r="N6" s="69"/>
+      <c r="M6" s="51"/>
+      <c r="N6" s="50"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="61"/>
-      <c r="B7" s="61"/>
+      <c r="A7" s="63"/>
+      <c r="B7" s="63"/>
       <c r="C7" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
       <c r="F7" s="31" t="s">
         <v>6</v>
       </c>
       <c r="G7" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="66"/>
-      <c r="I7" s="67"/>
+      <c r="H7" s="68"/>
+      <c r="I7" s="69"/>
       <c r="J7" s="5" t="s">
         <v>12</v>
       </c>
@@ -3598,25 +3593,25 @@
       </c>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="50" t="s">
+      <c r="A8" s="54" t="s">
         <v>32</v>
       </c>
       <c r="B8" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="50" t="s">
+      <c r="C8" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="50" t="s">
+      <c r="D8" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="48" t="s">
+      <c r="E8" s="52" t="s">
         <v>99</v>
       </c>
-      <c r="F8" s="48" t="s">
+      <c r="F8" s="52" t="s">
         <v>110</v>
       </c>
-      <c r="G8" s="48" t="s">
+      <c r="G8" s="52" t="s">
         <v>100</v>
       </c>
       <c r="H8" s="2" t="s">
@@ -3632,15 +3627,15 @@
       <c r="N8" s="9"/>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="51"/>
+      <c r="A9" s="55"/>
       <c r="B9" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
       <c r="H9" s="36" t="s">
         <v>51</v>
       </c>
@@ -3654,25 +3649,25 @@
       <c r="N9" s="8"/>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="50" t="s">
+      <c r="A10" s="54" t="s">
         <v>65</v>
       </c>
       <c r="B10" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="50" t="s">
+      <c r="C10" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="52" t="s">
+      <c r="D10" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="E10" s="48" t="s">
+      <c r="E10" s="52" t="s">
         <v>102</v>
       </c>
-      <c r="F10" s="48" t="s">
+      <c r="F10" s="52" t="s">
         <v>88</v>
       </c>
-      <c r="G10" s="48" t="s">
+      <c r="G10" s="52" t="s">
         <v>88</v>
       </c>
       <c r="H10" s="2" t="s">
@@ -3685,28 +3680,28 @@
         <v>113</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L10" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="M10" s="71" t="s">
-        <v>114</v>
+      <c r="M10" s="48" t="s">
+        <v>116</v>
       </c>
       <c r="N10" s="9" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="51"/>
+      <c r="A11" s="55"/>
       <c r="B11" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="51"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
       <c r="H11" s="3" t="s">
         <v>22</v>
       </c>
@@ -3720,25 +3715,25 @@
       <c r="N11" s="8"/>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="50" t="s">
+      <c r="A12" s="54" t="s">
         <v>67</v>
       </c>
       <c r="B12" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="C12" s="50" t="s">
+      <c r="C12" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="D12" s="52" t="s">
+      <c r="D12" s="58" t="s">
         <v>70</v>
       </c>
-      <c r="E12" s="48" t="s">
+      <c r="E12" s="52" t="s">
         <v>103</v>
       </c>
-      <c r="F12" s="48" t="s">
+      <c r="F12" s="52" t="s">
         <v>101</v>
       </c>
-      <c r="G12" s="48" t="s">
+      <c r="G12" s="52" t="s">
         <v>104</v>
       </c>
       <c r="H12" s="2" t="s">
@@ -3754,15 +3749,15 @@
       <c r="N12" s="9"/>
     </row>
     <row r="13" spans="1:14">
-      <c r="A13" s="51"/>
+      <c r="A13" s="55"/>
       <c r="B13" s="42" t="s">
         <v>73</v>
       </c>
-      <c r="C13" s="51"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
       <c r="H13" s="3" t="s">
         <v>22</v>
       </c>
@@ -3776,25 +3771,25 @@
       <c r="N13" s="8"/>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" s="50" t="s">
+      <c r="A14" s="54" t="s">
         <v>66</v>
       </c>
       <c r="B14" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="C14" s="52" t="s">
+      <c r="C14" s="58" t="s">
         <v>57</v>
       </c>
       <c r="D14" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="E14" s="48" t="s">
+      <c r="E14" s="52" t="s">
         <v>89</v>
       </c>
-      <c r="F14" s="48" t="s">
+      <c r="F14" s="52" t="s">
         <v>105</v>
       </c>
-      <c r="G14" s="48" t="s">
+      <c r="G14" s="52" t="s">
         <v>88</v>
       </c>
       <c r="H14" s="2" t="s">
@@ -3807,28 +3802,28 @@
         <v>113</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L14" s="9" t="s">
         <v>113</v>
       </c>
       <c r="M14" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="N14" s="9" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:14">
-      <c r="A15" s="51"/>
+      <c r="A15" s="55"/>
       <c r="B15" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="53"/>
+      <c r="C15" s="59"/>
       <c r="D15" s="57"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="49"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="53"/>
       <c r="H15" s="3" t="s">
         <v>22</v>
       </c>
@@ -3861,28 +3856,6 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="H6:I7"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:G6"/>
     <mergeCell ref="G12:G13"/>
     <mergeCell ref="G14:G15"/>
     <mergeCell ref="A14:A15"/>
@@ -3895,6 +3868,28 @@
     <mergeCell ref="D12:D13"/>
     <mergeCell ref="E12:E13"/>
     <mergeCell ref="F12:F13"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="H6:I7"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3910,8 +3905,8 @@
   </sheetPr>
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView showGridLines="0" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3936,20 +3931,20 @@
         <v>9</v>
       </c>
       <c r="B2" s="17"/>
-      <c r="C2" s="58" t="s">
+      <c r="C2" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="59"/>
+      <c r="D2" s="61"/>
       <c r="E2" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F2" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="58" t="s">
+      <c r="G2" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="59"/>
+      <c r="H2" s="61"/>
       <c r="I2" s="22"/>
       <c r="J2" s="23"/>
       <c r="K2" s="23"/>
@@ -3982,55 +3977,55 @@
       <c r="A5" s="4"/>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="60" t="s">
+      <c r="A6" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="60" t="s">
+      <c r="B6" s="62" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="60" t="s">
+      <c r="D6" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="60" t="s">
+      <c r="E6" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="62" t="s">
+      <c r="F6" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="63"/>
-      <c r="H6" s="64" t="s">
+      <c r="G6" s="65"/>
+      <c r="H6" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="65"/>
-      <c r="J6" s="68" t="s">
+      <c r="I6" s="67"/>
+      <c r="J6" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="K6" s="69"/>
-      <c r="L6" s="68" t="s">
+      <c r="K6" s="50"/>
+      <c r="L6" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="M6" s="70"/>
-      <c r="N6" s="69"/>
+      <c r="M6" s="51"/>
+      <c r="N6" s="50"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="61"/>
-      <c r="B7" s="61"/>
+      <c r="A7" s="63"/>
+      <c r="B7" s="63"/>
       <c r="C7" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
       <c r="F7" s="31" t="s">
         <v>6</v>
       </c>
       <c r="G7" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="66"/>
-      <c r="I7" s="67"/>
+      <c r="H7" s="68"/>
+      <c r="I7" s="69"/>
       <c r="J7" s="5" t="s">
         <v>12</v>
       </c>
@@ -4048,25 +4043,25 @@
       </c>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="50" t="s">
+      <c r="A8" s="54" t="s">
         <v>45</v>
       </c>
       <c r="B8" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="50" t="s">
+      <c r="C8" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="D8" s="52" t="s">
+      <c r="D8" s="58" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="48" t="s">
+      <c r="E8" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="F8" s="48" t="s">
+      <c r="F8" s="52" t="s">
         <v>88</v>
       </c>
-      <c r="G8" s="48" t="s">
+      <c r="G8" s="52" t="s">
         <v>88</v>
       </c>
       <c r="H8" s="2" t="s">
@@ -4079,28 +4074,28 @@
         <v>113</v>
       </c>
       <c r="K8" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="M8" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="L8" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="M8" s="7" t="s">
-        <v>114</v>
-      </c>
       <c r="N8" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="51"/>
+      <c r="A9" s="55"/>
       <c r="B9" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="51"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
       <c r="H9" s="3" t="s">
         <v>22</v>
       </c>
@@ -4114,25 +4109,25 @@
       <c r="N9" s="8"/>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="50" t="s">
+      <c r="A10" s="54" t="s">
         <v>59</v>
       </c>
       <c r="B10" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="C10" s="52" t="s">
+      <c r="C10" s="58" t="s">
         <v>57</v>
       </c>
       <c r="D10" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="E10" s="48" t="s">
+      <c r="E10" s="52" t="s">
         <v>89</v>
       </c>
-      <c r="F10" s="48" t="s">
+      <c r="F10" s="52" t="s">
         <v>88</v>
       </c>
-      <c r="G10" s="48" t="s">
+      <c r="G10" s="52" t="s">
         <v>88</v>
       </c>
       <c r="H10" s="2" t="s">
@@ -4145,7 +4140,7 @@
         <v>113</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>113</v>
@@ -4154,19 +4149,19 @@
         <v>116</v>
       </c>
       <c r="N10" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="51"/>
+      <c r="A11" s="55"/>
       <c r="B11" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="53"/>
+      <c r="C11" s="59"/>
       <c r="D11" s="57"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
       <c r="H11" s="3" t="s">
         <v>22</v>
       </c>
@@ -4199,6 +4194,20 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I7"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="L6:N6"/>
     <mergeCell ref="A8:A9"/>
@@ -4207,20 +4216,6 @@
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="G8:G9"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I7"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/unfinished/200系_ユースケース構成.xlsx
+++ b/doc/unfinished/200系_ユースケース構成.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="5130" yWindow="3390" windowWidth="15210" windowHeight="6345"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="15210" windowHeight="6345"/>
   </bookViews>
   <sheets>
     <sheet name="UC201" sheetId="4" r:id="rId1"/>
     <sheet name="UC202" sheetId="8" r:id="rId2"/>
     <sheet name="UC203" sheetId="6" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="H7:O27"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="120">
   <si>
     <t>画面ID</t>
     <rPh sb="0" eb="2">
@@ -699,7 +700,19 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Member</t>
+    <t>Name,MemberCode</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Name,MemberCode</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Name,MemberCode</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Name,MemberCode</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1108,6 +1121,66 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1116,66 +1189,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2882,8 +2895,8 @@
   </sheetPr>
   <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="H8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2908,20 +2921,20 @@
         <v>9</v>
       </c>
       <c r="B2" s="17"/>
-      <c r="C2" s="60" t="s">
+      <c r="C2" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="61"/>
+      <c r="D2" s="60"/>
       <c r="E2" s="26" t="s">
         <v>19</v>
       </c>
       <c r="F2" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="60" t="s">
+      <c r="G2" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="61"/>
+      <c r="H2" s="60"/>
       <c r="I2" s="22"/>
       <c r="J2" s="23"/>
       <c r="K2" s="23"/>
@@ -2954,55 +2967,55 @@
       <c r="A5" s="4"/>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="62" t="s">
+      <c r="B6" s="61" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="62" t="s">
+      <c r="D6" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="62" t="s">
+      <c r="E6" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="64" t="s">
+      <c r="F6" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="65"/>
-      <c r="H6" s="66" t="s">
+      <c r="G6" s="64"/>
+      <c r="H6" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="67"/>
-      <c r="J6" s="49" t="s">
+      <c r="I6" s="66"/>
+      <c r="J6" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="K6" s="50"/>
-      <c r="L6" s="49" t="s">
+      <c r="K6" s="70"/>
+      <c r="L6" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="M6" s="51"/>
-      <c r="N6" s="50"/>
+      <c r="M6" s="71"/>
+      <c r="N6" s="70"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="63"/>
-      <c r="B7" s="63"/>
+      <c r="A7" s="62"/>
+      <c r="B7" s="62"/>
       <c r="C7" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="63"/>
-      <c r="E7" s="63"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
       <c r="F7" s="27" t="s">
         <v>6</v>
       </c>
       <c r="G7" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="68"/>
-      <c r="I7" s="69"/>
+      <c r="H7" s="67"/>
+      <c r="I7" s="68"/>
       <c r="J7" s="5" t="s">
         <v>12</v>
       </c>
@@ -3020,25 +3033,25 @@
       </c>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="54" t="s">
+      <c r="A8" s="51" t="s">
         <v>28</v>
       </c>
       <c r="B8" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="54" t="s">
+      <c r="C8" s="51" t="s">
         <v>75</v>
       </c>
-      <c r="D8" s="58" t="s">
+      <c r="D8" s="53" t="s">
         <v>76</v>
       </c>
-      <c r="E8" s="52" t="s">
+      <c r="E8" s="49" t="s">
         <v>90</v>
       </c>
-      <c r="F8" s="70" t="s">
+      <c r="F8" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="G8" s="52" t="s">
+      <c r="G8" s="49" t="s">
         <v>88</v>
       </c>
       <c r="H8" s="2" t="s">
@@ -3064,15 +3077,15 @@
       </c>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="55"/>
+      <c r="A9" s="52"/>
       <c r="B9" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="55"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="71"/>
-      <c r="G9" s="53"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="50"/>
       <c r="H9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3088,25 +3101,25 @@
       <c r="N9" s="8"/>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="54" t="s">
+      <c r="A10" s="51" t="s">
         <v>79</v>
       </c>
       <c r="B10" s="43" t="s">
         <v>78</v>
       </c>
-      <c r="C10" s="54" t="s">
+      <c r="C10" s="51" t="s">
         <v>82</v>
       </c>
-      <c r="D10" s="58" t="s">
+      <c r="D10" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="52" t="s">
+      <c r="E10" s="49" t="s">
         <v>95</v>
       </c>
-      <c r="F10" s="70" t="s">
+      <c r="F10" s="55" t="s">
         <v>107</v>
       </c>
-      <c r="G10" s="52" t="s">
+      <c r="G10" s="49" t="s">
         <v>96</v>
       </c>
       <c r="H10" s="2" t="s">
@@ -3122,15 +3135,15 @@
       <c r="N10" s="7"/>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="55"/>
+      <c r="A11" s="52"/>
       <c r="B11" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="C11" s="55"/>
-      <c r="D11" s="59"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="71"/>
-      <c r="G11" s="53"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="50"/>
       <c r="H11" s="3" t="s">
         <v>51</v>
       </c>
@@ -3144,25 +3157,25 @@
       <c r="N11" s="8"/>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="54" t="s">
+      <c r="A12" s="51" t="s">
         <v>81</v>
       </c>
       <c r="B12" s="43" t="s">
         <v>83</v>
       </c>
-      <c r="C12" s="54" t="s">
+      <c r="C12" s="51" t="s">
         <v>80</v>
       </c>
-      <c r="D12" s="58" t="s">
+      <c r="D12" s="53" t="s">
         <v>84</v>
       </c>
-      <c r="E12" s="52" t="s">
+      <c r="E12" s="49" t="s">
         <v>93</v>
       </c>
       <c r="F12" s="45" t="s">
         <v>106</v>
       </c>
-      <c r="G12" s="52" t="s">
+      <c r="G12" s="49" t="s">
         <v>92</v>
       </c>
       <c r="H12" s="2" t="s">
@@ -3178,15 +3191,15 @@
       <c r="N12" s="7"/>
     </row>
     <row r="13" spans="1:14">
-      <c r="A13" s="55"/>
+      <c r="A13" s="52"/>
       <c r="B13" s="44" t="s">
         <v>87</v>
       </c>
-      <c r="C13" s="55"/>
-      <c r="D13" s="59"/>
-      <c r="E13" s="53"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="50"/>
       <c r="F13" s="47"/>
-      <c r="G13" s="53"/>
+      <c r="G13" s="50"/>
       <c r="H13" s="3" t="s">
         <v>51</v>
       </c>
@@ -3200,25 +3213,25 @@
       <c r="N13" s="8"/>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" s="54" t="s">
+      <c r="A14" s="51" t="s">
         <v>28</v>
       </c>
       <c r="B14" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="54" t="s">
+      <c r="C14" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="58" t="s">
+      <c r="D14" s="53" t="s">
         <v>63</v>
       </c>
-      <c r="E14" s="52" t="s">
+      <c r="E14" s="49" t="s">
         <v>94</v>
       </c>
       <c r="F14" s="46" t="s">
         <v>108</v>
       </c>
-      <c r="G14" s="52" t="s">
+      <c r="G14" s="49" t="s">
         <v>97</v>
       </c>
       <c r="H14" s="2" t="s">
@@ -3234,15 +3247,15 @@
       <c r="N14" s="7"/>
     </row>
     <row r="15" spans="1:14">
-      <c r="A15" s="55"/>
+      <c r="A15" s="52"/>
       <c r="B15" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="55"/>
-      <c r="D15" s="59"/>
-      <c r="E15" s="53"/>
+      <c r="C15" s="52"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="50"/>
       <c r="F15" s="47"/>
-      <c r="G15" s="53"/>
+      <c r="G15" s="50"/>
       <c r="H15" s="3" t="s">
         <v>51</v>
       </c>
@@ -3256,25 +3269,25 @@
       <c r="N15" s="8"/>
     </row>
     <row r="16" spans="1:14" ht="27">
-      <c r="A16" s="54" t="s">
+      <c r="A16" s="51" t="s">
         <v>30</v>
       </c>
       <c r="B16" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="54" t="s">
+      <c r="C16" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="56" t="s">
+      <c r="D16" s="57" t="s">
         <v>64</v>
       </c>
-      <c r="E16" s="52" t="s">
+      <c r="E16" s="49" t="s">
         <v>91</v>
       </c>
       <c r="F16" s="46" t="s">
         <v>109</v>
       </c>
-      <c r="G16" s="52" t="s">
+      <c r="G16" s="49" t="s">
         <v>98</v>
       </c>
       <c r="H16" s="2" t="s">
@@ -3290,15 +3303,15 @@
       <c r="N16" s="9"/>
     </row>
     <row r="17" spans="1:14">
-      <c r="A17" s="55"/>
+      <c r="A17" s="52"/>
       <c r="B17" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="55"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="53"/>
+      <c r="C17" s="52"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="50"/>
       <c r="F17" s="47"/>
-      <c r="G17" s="53"/>
+      <c r="G17" s="50"/>
       <c r="H17" s="3" t="s">
         <v>51</v>
       </c>
@@ -3312,25 +3325,25 @@
       <c r="N17" s="10"/>
     </row>
     <row r="18" spans="1:14">
-      <c r="A18" s="54" t="s">
+      <c r="A18" s="51" t="s">
         <v>55</v>
       </c>
       <c r="B18" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="58" t="s">
+      <c r="C18" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="D18" s="56" t="s">
+      <c r="D18" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="E18" s="52" t="s">
+      <c r="E18" s="49" t="s">
         <v>89</v>
       </c>
-      <c r="F18" s="70" t="s">
+      <c r="F18" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="G18" s="52" t="s">
+      <c r="G18" s="49" t="s">
         <v>88</v>
       </c>
       <c r="H18" s="2" t="s">
@@ -3349,22 +3362,22 @@
         <v>115</v>
       </c>
       <c r="M18" s="9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="N18" s="9" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="19" spans="1:14">
-      <c r="A19" s="55"/>
+      <c r="A19" s="52"/>
       <c r="B19" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="59"/>
-      <c r="D19" s="57"/>
-      <c r="E19" s="53"/>
-      <c r="F19" s="71"/>
-      <c r="G19" s="53"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="50"/>
       <c r="H19" s="3" t="s">
         <v>22</v>
       </c>
@@ -3397,33 +3410,6 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I7"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="L6:N6"/>
     <mergeCell ref="G16:G17"/>
@@ -3440,6 +3426,33 @@
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="E10:E11"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I7"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3455,7 +3468,7 @@
   </sheetPr>
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
@@ -3481,20 +3494,20 @@
         <v>9</v>
       </c>
       <c r="B2" s="17"/>
-      <c r="C2" s="60" t="s">
+      <c r="C2" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="61"/>
+      <c r="D2" s="60"/>
       <c r="E2" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F2" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="60" t="s">
+      <c r="G2" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="61"/>
+      <c r="H2" s="60"/>
       <c r="I2" s="22"/>
       <c r="J2" s="23"/>
       <c r="K2" s="23"/>
@@ -3527,55 +3540,55 @@
       <c r="A5" s="4"/>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="62" t="s">
+      <c r="B6" s="61" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="62" t="s">
+      <c r="D6" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="62" t="s">
+      <c r="E6" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="64" t="s">
+      <c r="F6" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="65"/>
-      <c r="H6" s="66" t="s">
+      <c r="G6" s="64"/>
+      <c r="H6" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="67"/>
-      <c r="J6" s="49" t="s">
+      <c r="I6" s="66"/>
+      <c r="J6" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="K6" s="50"/>
-      <c r="L6" s="49" t="s">
+      <c r="K6" s="70"/>
+      <c r="L6" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="M6" s="51"/>
-      <c r="N6" s="50"/>
+      <c r="M6" s="71"/>
+      <c r="N6" s="70"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="63"/>
-      <c r="B7" s="63"/>
+      <c r="A7" s="62"/>
+      <c r="B7" s="62"/>
       <c r="C7" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="63"/>
-      <c r="E7" s="63"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
       <c r="F7" s="31" t="s">
         <v>6</v>
       </c>
       <c r="G7" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="68"/>
-      <c r="I7" s="69"/>
+      <c r="H7" s="67"/>
+      <c r="I7" s="68"/>
       <c r="J7" s="5" t="s">
         <v>12</v>
       </c>
@@ -3593,25 +3606,25 @@
       </c>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="54" t="s">
+      <c r="A8" s="51" t="s">
         <v>32</v>
       </c>
       <c r="B8" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="54" t="s">
+      <c r="C8" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="54" t="s">
+      <c r="D8" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="52" t="s">
+      <c r="E8" s="49" t="s">
         <v>99</v>
       </c>
-      <c r="F8" s="52" t="s">
+      <c r="F8" s="49" t="s">
         <v>110</v>
       </c>
-      <c r="G8" s="52" t="s">
+      <c r="G8" s="49" t="s">
         <v>100</v>
       </c>
       <c r="H8" s="2" t="s">
@@ -3627,15 +3640,15 @@
       <c r="N8" s="9"/>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="55"/>
+      <c r="A9" s="52"/>
       <c r="B9" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="55"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53"/>
-      <c r="G9" s="53"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
       <c r="H9" s="36" t="s">
         <v>51</v>
       </c>
@@ -3649,25 +3662,25 @@
       <c r="N9" s="8"/>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="54" t="s">
+      <c r="A10" s="51" t="s">
         <v>65</v>
       </c>
       <c r="B10" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="54" t="s">
+      <c r="C10" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="58" t="s">
+      <c r="D10" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="E10" s="52" t="s">
+      <c r="E10" s="49" t="s">
         <v>102</v>
       </c>
-      <c r="F10" s="52" t="s">
+      <c r="F10" s="49" t="s">
         <v>88</v>
       </c>
-      <c r="G10" s="52" t="s">
+      <c r="G10" s="49" t="s">
         <v>88</v>
       </c>
       <c r="H10" s="2" t="s">
@@ -3686,22 +3699,22 @@
         <v>113</v>
       </c>
       <c r="M10" s="48" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="N10" s="9" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="55"/>
+      <c r="A11" s="52"/>
       <c r="B11" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="55"/>
-      <c r="D11" s="59"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
       <c r="H11" s="3" t="s">
         <v>22</v>
       </c>
@@ -3715,25 +3728,25 @@
       <c r="N11" s="8"/>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="54" t="s">
+      <c r="A12" s="51" t="s">
         <v>67</v>
       </c>
       <c r="B12" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="C12" s="54" t="s">
+      <c r="C12" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="D12" s="58" t="s">
+      <c r="D12" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="E12" s="52" t="s">
+      <c r="E12" s="49" t="s">
         <v>103</v>
       </c>
-      <c r="F12" s="52" t="s">
+      <c r="F12" s="49" t="s">
         <v>101</v>
       </c>
-      <c r="G12" s="52" t="s">
+      <c r="G12" s="49" t="s">
         <v>104</v>
       </c>
       <c r="H12" s="2" t="s">
@@ -3749,15 +3762,15 @@
       <c r="N12" s="9"/>
     </row>
     <row r="13" spans="1:14">
-      <c r="A13" s="55"/>
+      <c r="A13" s="52"/>
       <c r="B13" s="42" t="s">
         <v>73</v>
       </c>
-      <c r="C13" s="55"/>
-      <c r="D13" s="59"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="53"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="50"/>
       <c r="H13" s="3" t="s">
         <v>22</v>
       </c>
@@ -3771,25 +3784,25 @@
       <c r="N13" s="8"/>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" s="54" t="s">
+      <c r="A14" s="51" t="s">
         <v>66</v>
       </c>
       <c r="B14" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="C14" s="58" t="s">
+      <c r="C14" s="53" t="s">
         <v>57</v>
       </c>
-      <c r="D14" s="56" t="s">
+      <c r="D14" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="E14" s="52" t="s">
+      <c r="E14" s="49" t="s">
         <v>89</v>
       </c>
-      <c r="F14" s="52" t="s">
+      <c r="F14" s="49" t="s">
         <v>105</v>
       </c>
-      <c r="G14" s="52" t="s">
+      <c r="G14" s="49" t="s">
         <v>88</v>
       </c>
       <c r="H14" s="2" t="s">
@@ -3808,22 +3821,22 @@
         <v>113</v>
       </c>
       <c r="M14" s="9" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="N14" s="9" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:14">
-      <c r="A15" s="55"/>
+      <c r="A15" s="52"/>
       <c r="B15" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="59"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="53"/>
-      <c r="F15" s="53"/>
-      <c r="G15" s="53"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="50"/>
       <c r="H15" s="3" t="s">
         <v>22</v>
       </c>
@@ -3856,6 +3869,28 @@
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="H6:I7"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:G6"/>
     <mergeCell ref="G12:G13"/>
     <mergeCell ref="G14:G15"/>
     <mergeCell ref="A14:A15"/>
@@ -3868,28 +3903,6 @@
     <mergeCell ref="D12:D13"/>
     <mergeCell ref="E12:E13"/>
     <mergeCell ref="F12:F13"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="H6:I7"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3906,7 +3919,7 @@
   <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3931,20 +3944,20 @@
         <v>9</v>
       </c>
       <c r="B2" s="17"/>
-      <c r="C2" s="60" t="s">
+      <c r="C2" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="61"/>
+      <c r="D2" s="60"/>
       <c r="E2" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F2" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="60" t="s">
+      <c r="G2" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="61"/>
+      <c r="H2" s="60"/>
       <c r="I2" s="22"/>
       <c r="J2" s="23"/>
       <c r="K2" s="23"/>
@@ -3977,55 +3990,55 @@
       <c r="A5" s="4"/>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="62" t="s">
+      <c r="B6" s="61" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="62" t="s">
+      <c r="D6" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="62" t="s">
+      <c r="E6" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="64" t="s">
+      <c r="F6" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="65"/>
-      <c r="H6" s="66" t="s">
+      <c r="G6" s="64"/>
+      <c r="H6" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="67"/>
-      <c r="J6" s="49" t="s">
+      <c r="I6" s="66"/>
+      <c r="J6" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="K6" s="50"/>
-      <c r="L6" s="49" t="s">
+      <c r="K6" s="70"/>
+      <c r="L6" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="M6" s="51"/>
-      <c r="N6" s="50"/>
+      <c r="M6" s="71"/>
+      <c r="N6" s="70"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="63"/>
-      <c r="B7" s="63"/>
+      <c r="A7" s="62"/>
+      <c r="B7" s="62"/>
       <c r="C7" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="63"/>
-      <c r="E7" s="63"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
       <c r="F7" s="31" t="s">
         <v>6</v>
       </c>
       <c r="G7" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="68"/>
-      <c r="I7" s="69"/>
+      <c r="H7" s="67"/>
+      <c r="I7" s="68"/>
       <c r="J7" s="5" t="s">
         <v>12</v>
       </c>
@@ -4043,25 +4056,25 @@
       </c>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="54" t="s">
+      <c r="A8" s="51" t="s">
         <v>45</v>
       </c>
       <c r="B8" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="54" t="s">
+      <c r="C8" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="D8" s="58" t="s">
+      <c r="D8" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="52" t="s">
+      <c r="E8" s="49" t="s">
         <v>111</v>
       </c>
-      <c r="F8" s="52" t="s">
+      <c r="F8" s="49" t="s">
         <v>88</v>
       </c>
-      <c r="G8" s="52" t="s">
+      <c r="G8" s="49" t="s">
         <v>88</v>
       </c>
       <c r="H8" s="2" t="s">
@@ -4087,15 +4100,15 @@
       </c>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="55"/>
+      <c r="A9" s="52"/>
       <c r="B9" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="55"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53"/>
-      <c r="G9" s="53"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
       <c r="H9" s="3" t="s">
         <v>22</v>
       </c>
@@ -4109,25 +4122,25 @@
       <c r="N9" s="8"/>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="54" t="s">
+      <c r="A10" s="51" t="s">
         <v>59</v>
       </c>
       <c r="B10" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="C10" s="58" t="s">
+      <c r="C10" s="53" t="s">
         <v>57</v>
       </c>
-      <c r="D10" s="56" t="s">
+      <c r="D10" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="E10" s="52" t="s">
+      <c r="E10" s="49" t="s">
         <v>89</v>
       </c>
-      <c r="F10" s="52" t="s">
+      <c r="F10" s="49" t="s">
         <v>88</v>
       </c>
-      <c r="G10" s="52" t="s">
+      <c r="G10" s="49" t="s">
         <v>88</v>
       </c>
       <c r="H10" s="2" t="s">
@@ -4146,22 +4159,22 @@
         <v>113</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="N10" s="7" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="55"/>
+      <c r="A11" s="52"/>
       <c r="B11" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="59"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
       <c r="H11" s="3" t="s">
         <v>22</v>
       </c>
@@ -4194,12 +4207,14 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="A6:A7"/>
@@ -4208,14 +4223,12 @@
     <mergeCell ref="E6:E7"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="H6:I7"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/unfinished/200系_ユースケース構成.xlsx
+++ b/doc/unfinished/200系_ユースケース構成.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="15210" windowHeight="6345"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="15210" windowHeight="6345" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="UC201" sheetId="4" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="UC203" sheetId="6" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="H7:O27"/>
+  <oleSize ref="C1:I19"/>
 </workbook>
 </file>
 
@@ -1121,6 +1121,15 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1133,62 +1142,53 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2895,7 +2895,7 @@
   </sheetPr>
   <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="H8" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="C6" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
@@ -2921,20 +2921,20 @@
         <v>9</v>
       </c>
       <c r="B2" s="17"/>
-      <c r="C2" s="59" t="s">
+      <c r="C2" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="60"/>
+      <c r="D2" s="61"/>
       <c r="E2" s="26" t="s">
         <v>19</v>
       </c>
       <c r="F2" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="59" t="s">
+      <c r="G2" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="60"/>
+      <c r="H2" s="61"/>
       <c r="I2" s="22"/>
       <c r="J2" s="23"/>
       <c r="K2" s="23"/>
@@ -2967,55 +2967,55 @@
       <c r="A5" s="4"/>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="61" t="s">
+      <c r="B6" s="62" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="61" t="s">
+      <c r="D6" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="61" t="s">
+      <c r="E6" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="63" t="s">
+      <c r="F6" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="64"/>
-      <c r="H6" s="65" t="s">
+      <c r="G6" s="65"/>
+      <c r="H6" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="66"/>
-      <c r="J6" s="69" t="s">
+      <c r="I6" s="67"/>
+      <c r="J6" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="K6" s="70"/>
-      <c r="L6" s="69" t="s">
+      <c r="K6" s="50"/>
+      <c r="L6" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="M6" s="71"/>
-      <c r="N6" s="70"/>
+      <c r="M6" s="51"/>
+      <c r="N6" s="50"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="62"/>
-      <c r="B7" s="62"/>
+      <c r="A7" s="63"/>
+      <c r="B7" s="63"/>
       <c r="C7" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
       <c r="F7" s="27" t="s">
         <v>6</v>
       </c>
       <c r="G7" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="67"/>
-      <c r="I7" s="68"/>
+      <c r="H7" s="68"/>
+      <c r="I7" s="69"/>
       <c r="J7" s="5" t="s">
         <v>12</v>
       </c>
@@ -3033,25 +3033,25 @@
       </c>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="51" t="s">
+      <c r="A8" s="54" t="s">
         <v>28</v>
       </c>
       <c r="B8" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="51" t="s">
+      <c r="C8" s="54" t="s">
         <v>75</v>
       </c>
-      <c r="D8" s="53" t="s">
+      <c r="D8" s="58" t="s">
         <v>76</v>
       </c>
-      <c r="E8" s="49" t="s">
+      <c r="E8" s="52" t="s">
         <v>90</v>
       </c>
-      <c r="F8" s="55" t="s">
+      <c r="F8" s="70" t="s">
         <v>88</v>
       </c>
-      <c r="G8" s="49" t="s">
+      <c r="G8" s="52" t="s">
         <v>88</v>
       </c>
       <c r="H8" s="2" t="s">
@@ -3077,15 +3077,15 @@
       </c>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="52"/>
+      <c r="A9" s="55"/>
       <c r="B9" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="52"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="56"/>
-      <c r="G9" s="50"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="71"/>
+      <c r="G9" s="53"/>
       <c r="H9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3101,25 +3101,25 @@
       <c r="N9" s="8"/>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="51" t="s">
+      <c r="A10" s="54" t="s">
         <v>79</v>
       </c>
       <c r="B10" s="43" t="s">
         <v>78</v>
       </c>
-      <c r="C10" s="51" t="s">
+      <c r="C10" s="54" t="s">
         <v>82</v>
       </c>
-      <c r="D10" s="53" t="s">
+      <c r="D10" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="49" t="s">
+      <c r="E10" s="52" t="s">
         <v>95</v>
       </c>
-      <c r="F10" s="55" t="s">
+      <c r="F10" s="70" t="s">
         <v>107</v>
       </c>
-      <c r="G10" s="49" t="s">
+      <c r="G10" s="52" t="s">
         <v>96</v>
       </c>
       <c r="H10" s="2" t="s">
@@ -3135,15 +3135,15 @@
       <c r="N10" s="7"/>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="52"/>
+      <c r="A11" s="55"/>
       <c r="B11" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="C11" s="52"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="56"/>
-      <c r="G11" s="50"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="71"/>
+      <c r="G11" s="53"/>
       <c r="H11" s="3" t="s">
         <v>51</v>
       </c>
@@ -3157,25 +3157,25 @@
       <c r="N11" s="8"/>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="51" t="s">
+      <c r="A12" s="54" t="s">
         <v>81</v>
       </c>
       <c r="B12" s="43" t="s">
         <v>83</v>
       </c>
-      <c r="C12" s="51" t="s">
+      <c r="C12" s="54" t="s">
         <v>80</v>
       </c>
-      <c r="D12" s="53" t="s">
+      <c r="D12" s="58" t="s">
         <v>84</v>
       </c>
-      <c r="E12" s="49" t="s">
+      <c r="E12" s="52" t="s">
         <v>93</v>
       </c>
       <c r="F12" s="45" t="s">
         <v>106</v>
       </c>
-      <c r="G12" s="49" t="s">
+      <c r="G12" s="52" t="s">
         <v>92</v>
       </c>
       <c r="H12" s="2" t="s">
@@ -3191,15 +3191,15 @@
       <c r="N12" s="7"/>
     </row>
     <row r="13" spans="1:14">
-      <c r="A13" s="52"/>
+      <c r="A13" s="55"/>
       <c r="B13" s="44" t="s">
         <v>87</v>
       </c>
-      <c r="C13" s="52"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="50"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="53"/>
       <c r="F13" s="47"/>
-      <c r="G13" s="50"/>
+      <c r="G13" s="53"/>
       <c r="H13" s="3" t="s">
         <v>51</v>
       </c>
@@ -3213,25 +3213,25 @@
       <c r="N13" s="8"/>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" s="51" t="s">
+      <c r="A14" s="54" t="s">
         <v>28</v>
       </c>
       <c r="B14" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="51" t="s">
+      <c r="C14" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="53" t="s">
+      <c r="D14" s="58" t="s">
         <v>63</v>
       </c>
-      <c r="E14" s="49" t="s">
+      <c r="E14" s="52" t="s">
         <v>94</v>
       </c>
       <c r="F14" s="46" t="s">
         <v>108</v>
       </c>
-      <c r="G14" s="49" t="s">
+      <c r="G14" s="52" t="s">
         <v>97</v>
       </c>
       <c r="H14" s="2" t="s">
@@ -3247,15 +3247,15 @@
       <c r="N14" s="7"/>
     </row>
     <row r="15" spans="1:14">
-      <c r="A15" s="52"/>
+      <c r="A15" s="55"/>
       <c r="B15" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="52"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="50"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="53"/>
       <c r="F15" s="47"/>
-      <c r="G15" s="50"/>
+      <c r="G15" s="53"/>
       <c r="H15" s="3" t="s">
         <v>51</v>
       </c>
@@ -3269,25 +3269,25 @@
       <c r="N15" s="8"/>
     </row>
     <row r="16" spans="1:14" ht="27">
-      <c r="A16" s="51" t="s">
+      <c r="A16" s="54" t="s">
         <v>30</v>
       </c>
       <c r="B16" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="51" t="s">
+      <c r="C16" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="57" t="s">
+      <c r="D16" s="56" t="s">
         <v>64</v>
       </c>
-      <c r="E16" s="49" t="s">
+      <c r="E16" s="52" t="s">
         <v>91</v>
       </c>
       <c r="F16" s="46" t="s">
         <v>109</v>
       </c>
-      <c r="G16" s="49" t="s">
+      <c r="G16" s="52" t="s">
         <v>98</v>
       </c>
       <c r="H16" s="2" t="s">
@@ -3303,15 +3303,15 @@
       <c r="N16" s="9"/>
     </row>
     <row r="17" spans="1:14">
-      <c r="A17" s="52"/>
+      <c r="A17" s="55"/>
       <c r="B17" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="52"/>
-      <c r="D17" s="58"/>
-      <c r="E17" s="50"/>
+      <c r="C17" s="55"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="53"/>
       <c r="F17" s="47"/>
-      <c r="G17" s="50"/>
+      <c r="G17" s="53"/>
       <c r="H17" s="3" t="s">
         <v>51</v>
       </c>
@@ -3325,25 +3325,25 @@
       <c r="N17" s="10"/>
     </row>
     <row r="18" spans="1:14">
-      <c r="A18" s="51" t="s">
+      <c r="A18" s="54" t="s">
         <v>55</v>
       </c>
       <c r="B18" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="53" t="s">
+      <c r="C18" s="58" t="s">
         <v>62</v>
       </c>
-      <c r="D18" s="57" t="s">
+      <c r="D18" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="E18" s="49" t="s">
+      <c r="E18" s="52" t="s">
         <v>89</v>
       </c>
-      <c r="F18" s="55" t="s">
+      <c r="F18" s="70" t="s">
         <v>88</v>
       </c>
-      <c r="G18" s="49" t="s">
+      <c r="G18" s="52" t="s">
         <v>88</v>
       </c>
       <c r="H18" s="2" t="s">
@@ -3369,15 +3369,15 @@
       </c>
     </row>
     <row r="19" spans="1:14">
-      <c r="A19" s="52"/>
+      <c r="A19" s="55"/>
       <c r="B19" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="54"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="56"/>
-      <c r="G19" s="50"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="71"/>
+      <c r="G19" s="53"/>
       <c r="H19" s="3" t="s">
         <v>22</v>
       </c>
@@ -3410,6 +3410,33 @@
     </row>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I7"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="L6:N6"/>
     <mergeCell ref="G16:G17"/>
@@ -3426,33 +3453,6 @@
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="E10:E11"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I7"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3468,7 +3468,7 @@
   </sheetPr>
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
@@ -3494,20 +3494,20 @@
         <v>9</v>
       </c>
       <c r="B2" s="17"/>
-      <c r="C2" s="59" t="s">
+      <c r="C2" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="60"/>
+      <c r="D2" s="61"/>
       <c r="E2" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F2" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="59" t="s">
+      <c r="G2" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="60"/>
+      <c r="H2" s="61"/>
       <c r="I2" s="22"/>
       <c r="J2" s="23"/>
       <c r="K2" s="23"/>
@@ -3540,55 +3540,55 @@
       <c r="A5" s="4"/>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="61" t="s">
+      <c r="B6" s="62" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="61" t="s">
+      <c r="D6" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="61" t="s">
+      <c r="E6" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="63" t="s">
+      <c r="F6" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="64"/>
-      <c r="H6" s="65" t="s">
+      <c r="G6" s="65"/>
+      <c r="H6" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="66"/>
-      <c r="J6" s="69" t="s">
+      <c r="I6" s="67"/>
+      <c r="J6" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="K6" s="70"/>
-      <c r="L6" s="69" t="s">
+      <c r="K6" s="50"/>
+      <c r="L6" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="M6" s="71"/>
-      <c r="N6" s="70"/>
+      <c r="M6" s="51"/>
+      <c r="N6" s="50"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="62"/>
-      <c r="B7" s="62"/>
+      <c r="A7" s="63"/>
+      <c r="B7" s="63"/>
       <c r="C7" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
       <c r="F7" s="31" t="s">
         <v>6</v>
       </c>
       <c r="G7" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="67"/>
-      <c r="I7" s="68"/>
+      <c r="H7" s="68"/>
+      <c r="I7" s="69"/>
       <c r="J7" s="5" t="s">
         <v>12</v>
       </c>
@@ -3606,25 +3606,25 @@
       </c>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="51" t="s">
+      <c r="A8" s="54" t="s">
         <v>32</v>
       </c>
       <c r="B8" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="51" t="s">
+      <c r="C8" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="51" t="s">
+      <c r="D8" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="49" t="s">
+      <c r="E8" s="52" t="s">
         <v>99</v>
       </c>
-      <c r="F8" s="49" t="s">
+      <c r="F8" s="52" t="s">
         <v>110</v>
       </c>
-      <c r="G8" s="49" t="s">
+      <c r="G8" s="52" t="s">
         <v>100</v>
       </c>
       <c r="H8" s="2" t="s">
@@ -3640,15 +3640,15 @@
       <c r="N8" s="9"/>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="52"/>
+      <c r="A9" s="55"/>
       <c r="B9" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="52"/>
-      <c r="D9" s="52"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
       <c r="H9" s="36" t="s">
         <v>51</v>
       </c>
@@ -3662,25 +3662,25 @@
       <c r="N9" s="8"/>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="51" t="s">
+      <c r="A10" s="54" t="s">
         <v>65</v>
       </c>
       <c r="B10" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="51" t="s">
+      <c r="C10" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="53" t="s">
+      <c r="D10" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="E10" s="49" t="s">
+      <c r="E10" s="52" t="s">
         <v>102</v>
       </c>
-      <c r="F10" s="49" t="s">
+      <c r="F10" s="52" t="s">
         <v>88</v>
       </c>
-      <c r="G10" s="49" t="s">
+      <c r="G10" s="52" t="s">
         <v>88</v>
       </c>
       <c r="H10" s="2" t="s">
@@ -3706,15 +3706,15 @@
       </c>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="52"/>
+      <c r="A11" s="55"/>
       <c r="B11" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="52"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="50"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
       <c r="H11" s="3" t="s">
         <v>22</v>
       </c>
@@ -3728,25 +3728,25 @@
       <c r="N11" s="8"/>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="51" t="s">
+      <c r="A12" s="54" t="s">
         <v>67</v>
       </c>
       <c r="B12" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="C12" s="51" t="s">
+      <c r="C12" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="D12" s="53" t="s">
+      <c r="D12" s="58" t="s">
         <v>70</v>
       </c>
-      <c r="E12" s="49" t="s">
+      <c r="E12" s="52" t="s">
         <v>103</v>
       </c>
-      <c r="F12" s="49" t="s">
+      <c r="F12" s="52" t="s">
         <v>101</v>
       </c>
-      <c r="G12" s="49" t="s">
+      <c r="G12" s="52" t="s">
         <v>104</v>
       </c>
       <c r="H12" s="2" t="s">
@@ -3762,15 +3762,15 @@
       <c r="N12" s="9"/>
     </row>
     <row r="13" spans="1:14">
-      <c r="A13" s="52"/>
+      <c r="A13" s="55"/>
       <c r="B13" s="42" t="s">
         <v>73</v>
       </c>
-      <c r="C13" s="52"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="50"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
       <c r="H13" s="3" t="s">
         <v>22</v>
       </c>
@@ -3784,25 +3784,25 @@
       <c r="N13" s="8"/>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" s="51" t="s">
+      <c r="A14" s="54" t="s">
         <v>66</v>
       </c>
       <c r="B14" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="C14" s="53" t="s">
+      <c r="C14" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="D14" s="57" t="s">
+      <c r="D14" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="E14" s="49" t="s">
+      <c r="E14" s="52" t="s">
         <v>89</v>
       </c>
-      <c r="F14" s="49" t="s">
+      <c r="F14" s="52" t="s">
         <v>105</v>
       </c>
-      <c r="G14" s="49" t="s">
+      <c r="G14" s="52" t="s">
         <v>88</v>
       </c>
       <c r="H14" s="2" t="s">
@@ -3828,15 +3828,15 @@
       </c>
     </row>
     <row r="15" spans="1:14">
-      <c r="A15" s="52"/>
+      <c r="A15" s="55"/>
       <c r="B15" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="54"/>
-      <c r="D15" s="58"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="50"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="53"/>
       <c r="H15" s="3" t="s">
         <v>22</v>
       </c>
@@ -3869,28 +3869,6 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="H6:I7"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:G6"/>
     <mergeCell ref="G12:G13"/>
     <mergeCell ref="G14:G15"/>
     <mergeCell ref="A14:A15"/>
@@ -3903,6 +3881,28 @@
     <mergeCell ref="D12:D13"/>
     <mergeCell ref="E12:E13"/>
     <mergeCell ref="F12:F13"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="H6:I7"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3918,8 +3918,8 @@
   </sheetPr>
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3944,20 +3944,20 @@
         <v>9</v>
       </c>
       <c r="B2" s="17"/>
-      <c r="C2" s="59" t="s">
+      <c r="C2" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="60"/>
+      <c r="D2" s="61"/>
       <c r="E2" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F2" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="59" t="s">
+      <c r="G2" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="60"/>
+      <c r="H2" s="61"/>
       <c r="I2" s="22"/>
       <c r="J2" s="23"/>
       <c r="K2" s="23"/>
@@ -3990,55 +3990,55 @@
       <c r="A5" s="4"/>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="61" t="s">
+      <c r="B6" s="62" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="61" t="s">
+      <c r="D6" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="61" t="s">
+      <c r="E6" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="63" t="s">
+      <c r="F6" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="64"/>
-      <c r="H6" s="65" t="s">
+      <c r="G6" s="65"/>
+      <c r="H6" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="66"/>
-      <c r="J6" s="69" t="s">
+      <c r="I6" s="67"/>
+      <c r="J6" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="K6" s="70"/>
-      <c r="L6" s="69" t="s">
+      <c r="K6" s="50"/>
+      <c r="L6" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="M6" s="71"/>
-      <c r="N6" s="70"/>
+      <c r="M6" s="51"/>
+      <c r="N6" s="50"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="62"/>
-      <c r="B7" s="62"/>
+      <c r="A7" s="63"/>
+      <c r="B7" s="63"/>
       <c r="C7" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
       <c r="F7" s="31" t="s">
         <v>6</v>
       </c>
       <c r="G7" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="67"/>
-      <c r="I7" s="68"/>
+      <c r="H7" s="68"/>
+      <c r="I7" s="69"/>
       <c r="J7" s="5" t="s">
         <v>12</v>
       </c>
@@ -4056,25 +4056,25 @@
       </c>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="51" t="s">
+      <c r="A8" s="54" t="s">
         <v>45</v>
       </c>
       <c r="B8" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="51" t="s">
+      <c r="C8" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="D8" s="53" t="s">
+      <c r="D8" s="58" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="49" t="s">
+      <c r="E8" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="F8" s="49" t="s">
+      <c r="F8" s="52" t="s">
         <v>88</v>
       </c>
-      <c r="G8" s="49" t="s">
+      <c r="G8" s="52" t="s">
         <v>88</v>
       </c>
       <c r="H8" s="2" t="s">
@@ -4100,15 +4100,15 @@
       </c>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="52"/>
+      <c r="A9" s="55"/>
       <c r="B9" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="52"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
       <c r="H9" s="3" t="s">
         <v>22</v>
       </c>
@@ -4122,25 +4122,25 @@
       <c r="N9" s="8"/>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="51" t="s">
+      <c r="A10" s="54" t="s">
         <v>59</v>
       </c>
       <c r="B10" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="C10" s="53" t="s">
+      <c r="C10" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="D10" s="57" t="s">
+      <c r="D10" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="E10" s="49" t="s">
+      <c r="E10" s="52" t="s">
         <v>89</v>
       </c>
-      <c r="F10" s="49" t="s">
+      <c r="F10" s="52" t="s">
         <v>88</v>
       </c>
-      <c r="G10" s="49" t="s">
+      <c r="G10" s="52" t="s">
         <v>88</v>
       </c>
       <c r="H10" s="2" t="s">
@@ -4166,15 +4166,15 @@
       </c>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="52"/>
+      <c r="A11" s="55"/>
       <c r="B11" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="54"/>
-      <c r="D11" s="58"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="50"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
       <c r="H11" s="3" t="s">
         <v>22</v>
       </c>
@@ -4207,6 +4207,20 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I7"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="L6:N6"/>
     <mergeCell ref="A8:A9"/>
@@ -4215,20 +4229,6 @@
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="G8:G9"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I7"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/unfinished/200系_ユースケース構成.xlsx
+++ b/doc/unfinished/200系_ユースケース構成.xlsx
@@ -12,12 +12,12 @@
     <sheet name="UC203" sheetId="6" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="C1:I19"/>
+  <oleSize ref="C3:I21"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="117">
   <si>
     <t>画面ID</t>
     <rPh sb="0" eb="2">
@@ -700,19 +700,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Name,MemberCode</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Name,MemberCode</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Name,MemberCode</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Name,MemberCode</t>
+    <t>Name,MemberCode,Cart</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1121,6 +1109,66 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1129,66 +1177,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2895,8 +2883,8 @@
   </sheetPr>
   <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="C6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView showGridLines="0" topLeftCell="H6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2910,7 +2898,9 @@
     <col min="7" max="7" width="11.375" customWidth="1"/>
     <col min="8" max="8" width="8.125" customWidth="1"/>
     <col min="9" max="9" width="30.375" customWidth="1"/>
-    <col min="10" max="14" width="15.375" customWidth="1"/>
+    <col min="10" max="12" width="15.375" customWidth="1"/>
+    <col min="13" max="13" width="25.25" customWidth="1"/>
+    <col min="14" max="14" width="15.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="15" customFormat="1" ht="15" customHeight="1">
@@ -2921,20 +2911,20 @@
         <v>9</v>
       </c>
       <c r="B2" s="17"/>
-      <c r="C2" s="60" t="s">
+      <c r="C2" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="61"/>
+      <c r="D2" s="60"/>
       <c r="E2" s="26" t="s">
         <v>19</v>
       </c>
       <c r="F2" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="60" t="s">
+      <c r="G2" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="61"/>
+      <c r="H2" s="60"/>
       <c r="I2" s="22"/>
       <c r="J2" s="23"/>
       <c r="K2" s="23"/>
@@ -2967,55 +2957,55 @@
       <c r="A5" s="4"/>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="62" t="s">
+      <c r="B6" s="61" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="62" t="s">
+      <c r="D6" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="62" t="s">
+      <c r="E6" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="64" t="s">
+      <c r="F6" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="65"/>
-      <c r="H6" s="66" t="s">
+      <c r="G6" s="64"/>
+      <c r="H6" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="67"/>
-      <c r="J6" s="49" t="s">
+      <c r="I6" s="66"/>
+      <c r="J6" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="K6" s="50"/>
-      <c r="L6" s="49" t="s">
+      <c r="K6" s="70"/>
+      <c r="L6" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="M6" s="51"/>
-      <c r="N6" s="50"/>
+      <c r="M6" s="71"/>
+      <c r="N6" s="70"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="63"/>
-      <c r="B7" s="63"/>
+      <c r="A7" s="62"/>
+      <c r="B7" s="62"/>
       <c r="C7" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="63"/>
-      <c r="E7" s="63"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
       <c r="F7" s="27" t="s">
         <v>6</v>
       </c>
       <c r="G7" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="68"/>
-      <c r="I7" s="69"/>
+      <c r="H7" s="67"/>
+      <c r="I7" s="68"/>
       <c r="J7" s="5" t="s">
         <v>12</v>
       </c>
@@ -3033,25 +3023,25 @@
       </c>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="54" t="s">
+      <c r="A8" s="51" t="s">
         <v>28</v>
       </c>
       <c r="B8" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="54" t="s">
+      <c r="C8" s="51" t="s">
         <v>75</v>
       </c>
-      <c r="D8" s="58" t="s">
+      <c r="D8" s="53" t="s">
         <v>76</v>
       </c>
-      <c r="E8" s="52" t="s">
+      <c r="E8" s="49" t="s">
         <v>90</v>
       </c>
-      <c r="F8" s="70" t="s">
+      <c r="F8" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="G8" s="52" t="s">
+      <c r="G8" s="49" t="s">
         <v>88</v>
       </c>
       <c r="H8" s="2" t="s">
@@ -3077,15 +3067,15 @@
       </c>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="55"/>
+      <c r="A9" s="52"/>
       <c r="B9" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="55"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="71"/>
-      <c r="G9" s="53"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="50"/>
       <c r="H9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3101,25 +3091,25 @@
       <c r="N9" s="8"/>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="54" t="s">
+      <c r="A10" s="51" t="s">
         <v>79</v>
       </c>
       <c r="B10" s="43" t="s">
         <v>78</v>
       </c>
-      <c r="C10" s="54" t="s">
+      <c r="C10" s="51" t="s">
         <v>82</v>
       </c>
-      <c r="D10" s="58" t="s">
+      <c r="D10" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="52" t="s">
+      <c r="E10" s="49" t="s">
         <v>95</v>
       </c>
-      <c r="F10" s="70" t="s">
+      <c r="F10" s="55" t="s">
         <v>107</v>
       </c>
-      <c r="G10" s="52" t="s">
+      <c r="G10" s="49" t="s">
         <v>96</v>
       </c>
       <c r="H10" s="2" t="s">
@@ -3135,15 +3125,15 @@
       <c r="N10" s="7"/>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="55"/>
+      <c r="A11" s="52"/>
       <c r="B11" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="C11" s="55"/>
-      <c r="D11" s="59"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="71"/>
-      <c r="G11" s="53"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="50"/>
       <c r="H11" s="3" t="s">
         <v>51</v>
       </c>
@@ -3157,25 +3147,25 @@
       <c r="N11" s="8"/>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="54" t="s">
+      <c r="A12" s="51" t="s">
         <v>81</v>
       </c>
       <c r="B12" s="43" t="s">
         <v>83</v>
       </c>
-      <c r="C12" s="54" t="s">
+      <c r="C12" s="51" t="s">
         <v>80</v>
       </c>
-      <c r="D12" s="58" t="s">
+      <c r="D12" s="53" t="s">
         <v>84</v>
       </c>
-      <c r="E12" s="52" t="s">
+      <c r="E12" s="49" t="s">
         <v>93</v>
       </c>
       <c r="F12" s="45" t="s">
         <v>106</v>
       </c>
-      <c r="G12" s="52" t="s">
+      <c r="G12" s="49" t="s">
         <v>92</v>
       </c>
       <c r="H12" s="2" t="s">
@@ -3191,15 +3181,15 @@
       <c r="N12" s="7"/>
     </row>
     <row r="13" spans="1:14">
-      <c r="A13" s="55"/>
+      <c r="A13" s="52"/>
       <c r="B13" s="44" t="s">
         <v>87</v>
       </c>
-      <c r="C13" s="55"/>
-      <c r="D13" s="59"/>
-      <c r="E13" s="53"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="50"/>
       <c r="F13" s="47"/>
-      <c r="G13" s="53"/>
+      <c r="G13" s="50"/>
       <c r="H13" s="3" t="s">
         <v>51</v>
       </c>
@@ -3213,25 +3203,25 @@
       <c r="N13" s="8"/>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" s="54" t="s">
+      <c r="A14" s="51" t="s">
         <v>28</v>
       </c>
       <c r="B14" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="54" t="s">
+      <c r="C14" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="58" t="s">
+      <c r="D14" s="53" t="s">
         <v>63</v>
       </c>
-      <c r="E14" s="52" t="s">
+      <c r="E14" s="49" t="s">
         <v>94</v>
       </c>
       <c r="F14" s="46" t="s">
         <v>108</v>
       </c>
-      <c r="G14" s="52" t="s">
+      <c r="G14" s="49" t="s">
         <v>97</v>
       </c>
       <c r="H14" s="2" t="s">
@@ -3247,15 +3237,15 @@
       <c r="N14" s="7"/>
     </row>
     <row r="15" spans="1:14">
-      <c r="A15" s="55"/>
+      <c r="A15" s="52"/>
       <c r="B15" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="55"/>
-      <c r="D15" s="59"/>
-      <c r="E15" s="53"/>
+      <c r="C15" s="52"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="50"/>
       <c r="F15" s="47"/>
-      <c r="G15" s="53"/>
+      <c r="G15" s="50"/>
       <c r="H15" s="3" t="s">
         <v>51</v>
       </c>
@@ -3269,25 +3259,25 @@
       <c r="N15" s="8"/>
     </row>
     <row r="16" spans="1:14" ht="27">
-      <c r="A16" s="54" t="s">
+      <c r="A16" s="51" t="s">
         <v>30</v>
       </c>
       <c r="B16" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="54" t="s">
+      <c r="C16" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="56" t="s">
+      <c r="D16" s="57" t="s">
         <v>64</v>
       </c>
-      <c r="E16" s="52" t="s">
+      <c r="E16" s="49" t="s">
         <v>91</v>
       </c>
       <c r="F16" s="46" t="s">
         <v>109</v>
       </c>
-      <c r="G16" s="52" t="s">
+      <c r="G16" s="49" t="s">
         <v>98</v>
       </c>
       <c r="H16" s="2" t="s">
@@ -3303,15 +3293,15 @@
       <c r="N16" s="9"/>
     </row>
     <row r="17" spans="1:14">
-      <c r="A17" s="55"/>
+      <c r="A17" s="52"/>
       <c r="B17" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="55"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="53"/>
+      <c r="C17" s="52"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="50"/>
       <c r="F17" s="47"/>
-      <c r="G17" s="53"/>
+      <c r="G17" s="50"/>
       <c r="H17" s="3" t="s">
         <v>51</v>
       </c>
@@ -3325,25 +3315,25 @@
       <c r="N17" s="10"/>
     </row>
     <row r="18" spans="1:14">
-      <c r="A18" s="54" t="s">
+      <c r="A18" s="51" t="s">
         <v>55</v>
       </c>
       <c r="B18" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="58" t="s">
+      <c r="C18" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="D18" s="56" t="s">
+      <c r="D18" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="E18" s="52" t="s">
+      <c r="E18" s="49" t="s">
         <v>89</v>
       </c>
-      <c r="F18" s="70" t="s">
+      <c r="F18" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="G18" s="52" t="s">
+      <c r="G18" s="49" t="s">
         <v>88</v>
       </c>
       <c r="H18" s="2" t="s">
@@ -3362,22 +3352,22 @@
         <v>115</v>
       </c>
       <c r="M18" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="N18" s="9" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="19" spans="1:14">
-      <c r="A19" s="55"/>
+      <c r="A19" s="52"/>
       <c r="B19" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="59"/>
-      <c r="D19" s="57"/>
-      <c r="E19" s="53"/>
-      <c r="F19" s="71"/>
-      <c r="G19" s="53"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="50"/>
       <c r="H19" s="3" t="s">
         <v>22</v>
       </c>
@@ -3410,33 +3400,6 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I7"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="L6:N6"/>
     <mergeCell ref="G16:G17"/>
@@ -3453,6 +3416,33 @@
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="E10:E11"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I7"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3468,7 +3458,7 @@
   </sheetPr>
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
@@ -3483,7 +3473,9 @@
     <col min="7" max="7" width="11.375" customWidth="1"/>
     <col min="8" max="8" width="8.125" customWidth="1"/>
     <col min="9" max="9" width="30.375" customWidth="1"/>
-    <col min="10" max="14" width="15.375" customWidth="1"/>
+    <col min="10" max="12" width="15.375" customWidth="1"/>
+    <col min="13" max="13" width="22.625" customWidth="1"/>
+    <col min="14" max="14" width="15.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="15" customFormat="1" ht="15" customHeight="1">
@@ -3494,20 +3486,20 @@
         <v>9</v>
       </c>
       <c r="B2" s="17"/>
-      <c r="C2" s="60" t="s">
+      <c r="C2" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="61"/>
+      <c r="D2" s="60"/>
       <c r="E2" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F2" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="60" t="s">
+      <c r="G2" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="61"/>
+      <c r="H2" s="60"/>
       <c r="I2" s="22"/>
       <c r="J2" s="23"/>
       <c r="K2" s="23"/>
@@ -3540,55 +3532,55 @@
       <c r="A5" s="4"/>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="62" t="s">
+      <c r="B6" s="61" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="62" t="s">
+      <c r="D6" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="62" t="s">
+      <c r="E6" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="64" t="s">
+      <c r="F6" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="65"/>
-      <c r="H6" s="66" t="s">
+      <c r="G6" s="64"/>
+      <c r="H6" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="67"/>
-      <c r="J6" s="49" t="s">
+      <c r="I6" s="66"/>
+      <c r="J6" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="K6" s="50"/>
-      <c r="L6" s="49" t="s">
+      <c r="K6" s="70"/>
+      <c r="L6" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="M6" s="51"/>
-      <c r="N6" s="50"/>
+      <c r="M6" s="71"/>
+      <c r="N6" s="70"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="63"/>
-      <c r="B7" s="63"/>
+      <c r="A7" s="62"/>
+      <c r="B7" s="62"/>
       <c r="C7" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="63"/>
-      <c r="E7" s="63"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
       <c r="F7" s="31" t="s">
         <v>6</v>
       </c>
       <c r="G7" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="68"/>
-      <c r="I7" s="69"/>
+      <c r="H7" s="67"/>
+      <c r="I7" s="68"/>
       <c r="J7" s="5" t="s">
         <v>12</v>
       </c>
@@ -3606,25 +3598,25 @@
       </c>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="54" t="s">
+      <c r="A8" s="51" t="s">
         <v>32</v>
       </c>
       <c r="B8" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="54" t="s">
+      <c r="C8" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="54" t="s">
+      <c r="D8" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="52" t="s">
+      <c r="E8" s="49" t="s">
         <v>99</v>
       </c>
-      <c r="F8" s="52" t="s">
+      <c r="F8" s="49" t="s">
         <v>110</v>
       </c>
-      <c r="G8" s="52" t="s">
+      <c r="G8" s="49" t="s">
         <v>100</v>
       </c>
       <c r="H8" s="2" t="s">
@@ -3640,15 +3632,15 @@
       <c r="N8" s="9"/>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="55"/>
+      <c r="A9" s="52"/>
       <c r="B9" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="55"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53"/>
-      <c r="G9" s="53"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
       <c r="H9" s="36" t="s">
         <v>51</v>
       </c>
@@ -3662,25 +3654,25 @@
       <c r="N9" s="8"/>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="54" t="s">
+      <c r="A10" s="51" t="s">
         <v>65</v>
       </c>
       <c r="B10" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="54" t="s">
+      <c r="C10" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="58" t="s">
+      <c r="D10" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="E10" s="52" t="s">
+      <c r="E10" s="49" t="s">
         <v>102</v>
       </c>
-      <c r="F10" s="52" t="s">
+      <c r="F10" s="49" t="s">
         <v>88</v>
       </c>
-      <c r="G10" s="52" t="s">
+      <c r="G10" s="49" t="s">
         <v>88</v>
       </c>
       <c r="H10" s="2" t="s">
@@ -3699,22 +3691,22 @@
         <v>113</v>
       </c>
       <c r="M10" s="48" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="N10" s="9" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="55"/>
+      <c r="A11" s="52"/>
       <c r="B11" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="55"/>
-      <c r="D11" s="59"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
       <c r="H11" s="3" t="s">
         <v>22</v>
       </c>
@@ -3728,25 +3720,25 @@
       <c r="N11" s="8"/>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="54" t="s">
+      <c r="A12" s="51" t="s">
         <v>67</v>
       </c>
       <c r="B12" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="C12" s="54" t="s">
+      <c r="C12" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="D12" s="58" t="s">
+      <c r="D12" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="E12" s="52" t="s">
+      <c r="E12" s="49" t="s">
         <v>103</v>
       </c>
-      <c r="F12" s="52" t="s">
+      <c r="F12" s="49" t="s">
         <v>101</v>
       </c>
-      <c r="G12" s="52" t="s">
+      <c r="G12" s="49" t="s">
         <v>104</v>
       </c>
       <c r="H12" s="2" t="s">
@@ -3762,15 +3754,15 @@
       <c r="N12" s="9"/>
     </row>
     <row r="13" spans="1:14">
-      <c r="A13" s="55"/>
+      <c r="A13" s="52"/>
       <c r="B13" s="42" t="s">
         <v>73</v>
       </c>
-      <c r="C13" s="55"/>
-      <c r="D13" s="59"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="53"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="50"/>
       <c r="H13" s="3" t="s">
         <v>22</v>
       </c>
@@ -3784,25 +3776,25 @@
       <c r="N13" s="8"/>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" s="54" t="s">
+      <c r="A14" s="51" t="s">
         <v>66</v>
       </c>
       <c r="B14" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="C14" s="58" t="s">
+      <c r="C14" s="53" t="s">
         <v>57</v>
       </c>
-      <c r="D14" s="56" t="s">
+      <c r="D14" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="E14" s="52" t="s">
+      <c r="E14" s="49" t="s">
         <v>89</v>
       </c>
-      <c r="F14" s="52" t="s">
+      <c r="F14" s="49" t="s">
         <v>105</v>
       </c>
-      <c r="G14" s="52" t="s">
+      <c r="G14" s="49" t="s">
         <v>88</v>
       </c>
       <c r="H14" s="2" t="s">
@@ -3821,22 +3813,22 @@
         <v>113</v>
       </c>
       <c r="M14" s="9" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="N14" s="9" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:14">
-      <c r="A15" s="55"/>
+      <c r="A15" s="52"/>
       <c r="B15" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="59"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="53"/>
-      <c r="F15" s="53"/>
-      <c r="G15" s="53"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="50"/>
       <c r="H15" s="3" t="s">
         <v>22</v>
       </c>
@@ -3869,6 +3861,28 @@
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="H6:I7"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:G6"/>
     <mergeCell ref="G12:G13"/>
     <mergeCell ref="G14:G15"/>
     <mergeCell ref="A14:A15"/>
@@ -3881,28 +3895,6 @@
     <mergeCell ref="D12:D13"/>
     <mergeCell ref="E12:E13"/>
     <mergeCell ref="F12:F13"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="H6:I7"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3918,8 +3910,8 @@
   </sheetPr>
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="H3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3933,7 +3925,9 @@
     <col min="7" max="7" width="11.375" customWidth="1"/>
     <col min="8" max="8" width="8.125" customWidth="1"/>
     <col min="9" max="9" width="30.375" customWidth="1"/>
-    <col min="10" max="14" width="15.375" customWidth="1"/>
+    <col min="10" max="12" width="15.375" customWidth="1"/>
+    <col min="13" max="13" width="21" customWidth="1"/>
+    <col min="14" max="14" width="15.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="15" customFormat="1" ht="15" customHeight="1">
@@ -3944,20 +3938,20 @@
         <v>9</v>
       </c>
       <c r="B2" s="17"/>
-      <c r="C2" s="60" t="s">
+      <c r="C2" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="61"/>
+      <c r="D2" s="60"/>
       <c r="E2" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F2" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="60" t="s">
+      <c r="G2" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="61"/>
+      <c r="H2" s="60"/>
       <c r="I2" s="22"/>
       <c r="J2" s="23"/>
       <c r="K2" s="23"/>
@@ -3990,55 +3984,55 @@
       <c r="A5" s="4"/>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="62" t="s">
+      <c r="B6" s="61" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="62" t="s">
+      <c r="D6" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="62" t="s">
+      <c r="E6" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="64" t="s">
+      <c r="F6" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="65"/>
-      <c r="H6" s="66" t="s">
+      <c r="G6" s="64"/>
+      <c r="H6" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="67"/>
-      <c r="J6" s="49" t="s">
+      <c r="I6" s="66"/>
+      <c r="J6" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="K6" s="50"/>
-      <c r="L6" s="49" t="s">
+      <c r="K6" s="70"/>
+      <c r="L6" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="M6" s="51"/>
-      <c r="N6" s="50"/>
+      <c r="M6" s="71"/>
+      <c r="N6" s="70"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="63"/>
-      <c r="B7" s="63"/>
+      <c r="A7" s="62"/>
+      <c r="B7" s="62"/>
       <c r="C7" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="63"/>
-      <c r="E7" s="63"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
       <c r="F7" s="31" t="s">
         <v>6</v>
       </c>
       <c r="G7" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="68"/>
-      <c r="I7" s="69"/>
+      <c r="H7" s="67"/>
+      <c r="I7" s="68"/>
       <c r="J7" s="5" t="s">
         <v>12</v>
       </c>
@@ -4056,25 +4050,25 @@
       </c>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="54" t="s">
+      <c r="A8" s="51" t="s">
         <v>45</v>
       </c>
       <c r="B8" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="54" t="s">
+      <c r="C8" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="D8" s="58" t="s">
+      <c r="D8" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="52" t="s">
+      <c r="E8" s="49" t="s">
         <v>111</v>
       </c>
-      <c r="F8" s="52" t="s">
+      <c r="F8" s="49" t="s">
         <v>88</v>
       </c>
-      <c r="G8" s="52" t="s">
+      <c r="G8" s="49" t="s">
         <v>88</v>
       </c>
       <c r="H8" s="2" t="s">
@@ -4100,15 +4094,15 @@
       </c>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="55"/>
+      <c r="A9" s="52"/>
       <c r="B9" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="55"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53"/>
-      <c r="G9" s="53"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
       <c r="H9" s="3" t="s">
         <v>22</v>
       </c>
@@ -4122,25 +4116,25 @@
       <c r="N9" s="8"/>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="54" t="s">
+      <c r="A10" s="51" t="s">
         <v>59</v>
       </c>
       <c r="B10" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="C10" s="58" t="s">
+      <c r="C10" s="53" t="s">
         <v>57</v>
       </c>
-      <c r="D10" s="56" t="s">
+      <c r="D10" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="E10" s="52" t="s">
+      <c r="E10" s="49" t="s">
         <v>89</v>
       </c>
-      <c r="F10" s="52" t="s">
+      <c r="F10" s="49" t="s">
         <v>88</v>
       </c>
-      <c r="G10" s="52" t="s">
+      <c r="G10" s="49" t="s">
         <v>88</v>
       </c>
       <c r="H10" s="2" t="s">
@@ -4159,22 +4153,22 @@
         <v>113</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="N10" s="7" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="55"/>
+      <c r="A11" s="52"/>
       <c r="B11" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="59"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
       <c r="H11" s="3" t="s">
         <v>22</v>
       </c>
@@ -4207,12 +4201,14 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="A6:A7"/>
@@ -4221,14 +4217,12 @@
     <mergeCell ref="E6:E7"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="H6:I7"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/unfinished/200系_ユースケース構成.xlsx
+++ b/doc/unfinished/200系_ユースケース構成.xlsx
@@ -4,20 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="15210" windowHeight="6345" activeTab="2"/>
+    <workbookView xWindow="2535" yWindow="0" windowWidth="17970" windowHeight="8925"/>
   </bookViews>
   <sheets>
     <sheet name="UC201" sheetId="4" r:id="rId1"/>
     <sheet name="UC202" sheetId="8" r:id="rId2"/>
     <sheet name="UC203" sheetId="6" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <oleSize ref="C3:I21"/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="115">
   <si>
     <t>画面ID</t>
     <rPh sb="0" eb="2">
@@ -500,10 +499,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>注文取消確認</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>CancelConfirmation.jsp</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -642,65 +637,55 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>orderCancel</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ShoppingCartAddLogic</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HotelDetailLogic</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ShoppingCartBuyLogic</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ShoppingCartConfirmLogic</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OrderDetailLogic</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>orderNum</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OrderListLogic</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>注文取消確認</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>OrderCancelAction</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>orderCancel</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ShoppingCartAddLogic</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>HotelDetailLogic</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ShoppingCartBuyLogic</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ShoppingCartConfirmLogic</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>OrderDetailLogic</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ToOrderListAction</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>非ログイン時はなし</t>
-    <rPh sb="0" eb="1">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Name,MemberCode,Cart</t>
+    <t>OrderListAction</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>orderList</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -993,7 +978,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1108,7 +1093,15 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1121,62 +1114,59 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2883,8 +2873,8 @@
   </sheetPr>
   <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="H6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2898,9 +2888,7 @@
     <col min="7" max="7" width="11.375" customWidth="1"/>
     <col min="8" max="8" width="8.125" customWidth="1"/>
     <col min="9" max="9" width="30.375" customWidth="1"/>
-    <col min="10" max="12" width="15.375" customWidth="1"/>
-    <col min="13" max="13" width="25.25" customWidth="1"/>
-    <col min="14" max="14" width="15.375" customWidth="1"/>
+    <col min="10" max="14" width="15.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="15" customFormat="1" ht="15" customHeight="1">
@@ -2980,15 +2968,15 @@
         <v>8</v>
       </c>
       <c r="I6" s="66"/>
-      <c r="J6" s="69" t="s">
+      <c r="J6" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="K6" s="70"/>
-      <c r="L6" s="69" t="s">
+      <c r="K6" s="49"/>
+      <c r="L6" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="M6" s="71"/>
-      <c r="N6" s="70"/>
+      <c r="M6" s="50"/>
+      <c r="N6" s="49"/>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="62"/>
@@ -3023,59 +3011,49 @@
       </c>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="51" t="s">
+      <c r="A8" s="53" t="s">
         <v>28</v>
       </c>
       <c r="B8" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="51" t="s">
+      <c r="C8" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" s="57" t="s">
         <v>75</v>
       </c>
-      <c r="D8" s="53" t="s">
-        <v>76</v>
-      </c>
-      <c r="E8" s="49" t="s">
-        <v>90</v>
-      </c>
-      <c r="F8" s="55" t="s">
-        <v>88</v>
-      </c>
-      <c r="G8" s="49" t="s">
-        <v>88</v>
+      <c r="E8" s="51" t="s">
+        <v>89</v>
+      </c>
+      <c r="F8" s="69" t="s">
+        <v>87</v>
+      </c>
+      <c r="G8" s="51" t="s">
+        <v>87</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>21</v>
       </c>
       <c r="I8" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="M8" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="N8" s="7" t="s">
-        <v>115</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="52"/>
+      <c r="A9" s="54"/>
       <c r="B9" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="52"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="56"/>
-      <c r="G9" s="50"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="52"/>
       <c r="H9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3085,38 +3063,36 @@
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
       <c r="L9" s="8"/>
-      <c r="M9" s="8" t="s">
-        <v>114</v>
-      </c>
+      <c r="M9" s="8"/>
       <c r="N9" s="8"/>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="51" t="s">
-        <v>79</v>
+      <c r="A10" s="53" t="s">
+        <v>78</v>
       </c>
       <c r="B10" s="43" t="s">
-        <v>78</v>
-      </c>
-      <c r="C10" s="51" t="s">
-        <v>82</v>
-      </c>
-      <c r="D10" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="49" t="s">
+      <c r="E10" s="51" t="s">
+        <v>94</v>
+      </c>
+      <c r="F10" s="69" t="s">
+        <v>105</v>
+      </c>
+      <c r="G10" s="51" t="s">
         <v>95</v>
-      </c>
-      <c r="F10" s="55" t="s">
-        <v>107</v>
-      </c>
-      <c r="G10" s="49" t="s">
-        <v>96</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>21</v>
       </c>
       <c r="I10" s="35" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
@@ -3125,20 +3101,20 @@
       <c r="N10" s="7"/>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="52"/>
+      <c r="A11" s="54"/>
       <c r="B11" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="C11" s="52"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="56"/>
-      <c r="G11" s="50"/>
+        <v>76</v>
+      </c>
+      <c r="C11" s="54"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="70"/>
+      <c r="G11" s="52"/>
       <c r="H11" s="3" t="s">
         <v>51</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
@@ -3147,32 +3123,32 @@
       <c r="N11" s="8"/>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="51" t="s">
-        <v>81</v>
+      <c r="A12" s="53" t="s">
+        <v>80</v>
       </c>
       <c r="B12" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" s="53" t="s">
+        <v>79</v>
+      </c>
+      <c r="D12" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="C12" s="51" t="s">
-        <v>80</v>
-      </c>
-      <c r="D12" s="53" t="s">
-        <v>84</v>
-      </c>
-      <c r="E12" s="49" t="s">
-        <v>93</v>
+      <c r="E12" s="51" t="s">
+        <v>92</v>
       </c>
       <c r="F12" s="45" t="s">
-        <v>106</v>
-      </c>
-      <c r="G12" s="49" t="s">
-        <v>92</v>
+        <v>104</v>
+      </c>
+      <c r="G12" s="51" t="s">
+        <v>91</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>21</v>
       </c>
       <c r="I12" s="35" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
@@ -3181,20 +3157,20 @@
       <c r="N12" s="7"/>
     </row>
     <row r="13" spans="1:14">
-      <c r="A13" s="52"/>
+      <c r="A13" s="54"/>
       <c r="B13" s="44" t="s">
-        <v>87</v>
-      </c>
-      <c r="C13" s="52"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="50"/>
+        <v>86</v>
+      </c>
+      <c r="C13" s="54"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="52"/>
       <c r="F13" s="47"/>
-      <c r="G13" s="50"/>
+      <c r="G13" s="52"/>
       <c r="H13" s="3" t="s">
         <v>51</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
@@ -3203,26 +3179,26 @@
       <c r="N13" s="8"/>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" s="51" t="s">
+      <c r="A14" s="53" t="s">
         <v>28</v>
       </c>
       <c r="B14" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="51" t="s">
+      <c r="C14" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="53" t="s">
+      <c r="D14" s="57" t="s">
         <v>63</v>
       </c>
-      <c r="E14" s="49" t="s">
-        <v>94</v>
+      <c r="E14" s="51" t="s">
+        <v>93</v>
       </c>
       <c r="F14" s="46" t="s">
-        <v>108</v>
-      </c>
-      <c r="G14" s="49" t="s">
-        <v>97</v>
+        <v>106</v>
+      </c>
+      <c r="G14" s="51" t="s">
+        <v>96</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>21</v>
@@ -3237,15 +3213,15 @@
       <c r="N14" s="7"/>
     </row>
     <row r="15" spans="1:14">
-      <c r="A15" s="52"/>
+      <c r="A15" s="54"/>
       <c r="B15" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="52"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="50"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="52"/>
       <c r="F15" s="47"/>
-      <c r="G15" s="50"/>
+      <c r="G15" s="52"/>
       <c r="H15" s="3" t="s">
         <v>51</v>
       </c>
@@ -3259,26 +3235,26 @@
       <c r="N15" s="8"/>
     </row>
     <row r="16" spans="1:14" ht="27">
-      <c r="A16" s="51" t="s">
+      <c r="A16" s="53" t="s">
         <v>30</v>
       </c>
       <c r="B16" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="51" t="s">
+      <c r="C16" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="57" t="s">
+      <c r="D16" s="55" t="s">
         <v>64</v>
       </c>
-      <c r="E16" s="49" t="s">
-        <v>91</v>
+      <c r="E16" s="51" t="s">
+        <v>90</v>
       </c>
       <c r="F16" s="46" t="s">
-        <v>109</v>
-      </c>
-      <c r="G16" s="49" t="s">
-        <v>98</v>
+        <v>107</v>
+      </c>
+      <c r="G16" s="51" t="s">
+        <v>97</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>21</v>
@@ -3293,15 +3269,15 @@
       <c r="N16" s="9"/>
     </row>
     <row r="17" spans="1:14">
-      <c r="A17" s="52"/>
+      <c r="A17" s="54"/>
       <c r="B17" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="52"/>
-      <c r="D17" s="58"/>
-      <c r="E17" s="50"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="52"/>
       <c r="F17" s="47"/>
-      <c r="G17" s="50"/>
+      <c r="G17" s="52"/>
       <c r="H17" s="3" t="s">
         <v>51</v>
       </c>
@@ -3315,26 +3291,26 @@
       <c r="N17" s="10"/>
     </row>
     <row r="18" spans="1:14">
-      <c r="A18" s="51" t="s">
+      <c r="A18" s="53" t="s">
         <v>55</v>
       </c>
       <c r="B18" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="53" t="s">
+      <c r="C18" s="57" t="s">
         <v>62</v>
       </c>
-      <c r="D18" s="57" t="s">
+      <c r="D18" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="E18" s="49" t="s">
-        <v>89</v>
-      </c>
-      <c r="F18" s="55" t="s">
+      <c r="E18" s="51" t="s">
         <v>88</v>
       </c>
-      <c r="G18" s="49" t="s">
-        <v>88</v>
+      <c r="F18" s="69" t="s">
+        <v>87</v>
+      </c>
+      <c r="G18" s="51" t="s">
+        <v>87</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>21</v>
@@ -3342,32 +3318,22 @@
       <c r="I18" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="J18" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="K18" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="L18" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="M18" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="N18" s="9" t="s">
-        <v>113</v>
-      </c>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
     </row>
     <row r="19" spans="1:14">
-      <c r="A19" s="52"/>
+      <c r="A19" s="54"/>
       <c r="B19" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="54"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="56"/>
-      <c r="G19" s="50"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="56"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="70"/>
+      <c r="G19" s="52"/>
       <c r="H19" s="3" t="s">
         <v>22</v>
       </c>
@@ -3400,6 +3366,33 @@
     </row>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I7"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="L6:N6"/>
     <mergeCell ref="G16:G17"/>
@@ -3416,33 +3409,6 @@
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="E10:E11"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I7"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3458,8 +3424,8 @@
   </sheetPr>
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3473,9 +3439,7 @@
     <col min="7" max="7" width="11.375" customWidth="1"/>
     <col min="8" max="8" width="8.125" customWidth="1"/>
     <col min="9" max="9" width="30.375" customWidth="1"/>
-    <col min="10" max="12" width="15.375" customWidth="1"/>
-    <col min="13" max="13" width="22.625" customWidth="1"/>
-    <col min="14" max="14" width="15.375" customWidth="1"/>
+    <col min="10" max="14" width="15.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="15" customFormat="1" ht="15" customHeight="1">
@@ -3555,15 +3519,15 @@
         <v>8</v>
       </c>
       <c r="I6" s="66"/>
-      <c r="J6" s="69" t="s">
+      <c r="J6" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="K6" s="70"/>
-      <c r="L6" s="69" t="s">
+      <c r="K6" s="49"/>
+      <c r="L6" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="M6" s="71"/>
-      <c r="N6" s="70"/>
+      <c r="M6" s="50"/>
+      <c r="N6" s="49"/>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="62"/>
@@ -3598,26 +3562,26 @@
       </c>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="51" t="s">
+      <c r="A8" s="53" t="s">
         <v>32</v>
       </c>
       <c r="B8" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="51" t="s">
+      <c r="C8" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="51" t="s">
+      <c r="D8" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="49" t="s">
+      <c r="E8" s="51" t="s">
+        <v>98</v>
+      </c>
+      <c r="F8" s="51" t="s">
+        <v>108</v>
+      </c>
+      <c r="G8" s="51" t="s">
         <v>99</v>
-      </c>
-      <c r="F8" s="49" t="s">
-        <v>110</v>
-      </c>
-      <c r="G8" s="49" t="s">
-        <v>100</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>21</v>
@@ -3626,21 +3590,23 @@
         <v>39</v>
       </c>
       <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
+      <c r="K8" s="9" t="s">
+        <v>109</v>
+      </c>
       <c r="L8" s="9"/>
       <c r="M8" s="9"/>
       <c r="N8" s="9"/>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="52"/>
+      <c r="A9" s="54"/>
       <c r="B9" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="52"/>
-      <c r="D9" s="52"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="52"/>
       <c r="H9" s="36" t="s">
         <v>51</v>
       </c>
@@ -3654,59 +3620,49 @@
       <c r="N9" s="8"/>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="51" t="s">
+      <c r="A10" s="53" t="s">
         <v>65</v>
       </c>
       <c r="B10" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="51" t="s">
+      <c r="C10" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="53" t="s">
+      <c r="D10" s="57" t="s">
         <v>69</v>
       </c>
-      <c r="E10" s="49" t="s">
-        <v>102</v>
-      </c>
-      <c r="F10" s="49" t="s">
-        <v>88</v>
-      </c>
-      <c r="G10" s="49" t="s">
-        <v>88</v>
+      <c r="E10" s="51" t="s">
+        <v>101</v>
+      </c>
+      <c r="F10" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="G10" s="51" t="s">
+        <v>87</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>21</v>
       </c>
       <c r="I10" s="34" t="s">
-        <v>74</v>
-      </c>
-      <c r="J10" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="K10" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="L10" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="M10" s="48" t="s">
-        <v>116</v>
-      </c>
-      <c r="N10" s="9" t="s">
-        <v>113</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="52"/>
+      <c r="A11" s="54"/>
       <c r="B11" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="52"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="50"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="52"/>
       <c r="H11" s="3" t="s">
         <v>22</v>
       </c>
@@ -3720,26 +3676,26 @@
       <c r="N11" s="8"/>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="51" t="s">
+      <c r="A12" s="53" t="s">
         <v>67</v>
       </c>
       <c r="B12" s="41" t="s">
-        <v>72</v>
-      </c>
-      <c r="C12" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="C12" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="D12" s="53" t="s">
+      <c r="D12" s="57" t="s">
         <v>70</v>
       </c>
-      <c r="E12" s="49" t="s">
-        <v>103</v>
-      </c>
-      <c r="F12" s="49" t="s">
-        <v>101</v>
-      </c>
-      <c r="G12" s="49" t="s">
-        <v>104</v>
+      <c r="E12" s="51" t="s">
+        <v>112</v>
+      </c>
+      <c r="F12" s="51" t="s">
+        <v>100</v>
+      </c>
+      <c r="G12" s="51" t="s">
+        <v>102</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>21</v>
@@ -3754,15 +3710,15 @@
       <c r="N12" s="9"/>
     </row>
     <row r="13" spans="1:14">
-      <c r="A13" s="52"/>
+      <c r="A13" s="54"/>
       <c r="B13" s="42" t="s">
-        <v>73</v>
-      </c>
-      <c r="C13" s="52"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="50"/>
+        <v>72</v>
+      </c>
+      <c r="C13" s="54"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="52"/>
       <c r="H13" s="3" t="s">
         <v>22</v>
       </c>
@@ -3776,26 +3732,26 @@
       <c r="N13" s="8"/>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" s="51" t="s">
+      <c r="A14" s="53" t="s">
         <v>66</v>
       </c>
       <c r="B14" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="C14" s="53" t="s">
+      <c r="C14" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="D14" s="57" t="s">
+      <c r="D14" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="E14" s="49" t="s">
-        <v>89</v>
-      </c>
-      <c r="F14" s="49" t="s">
-        <v>105</v>
-      </c>
-      <c r="G14" s="49" t="s">
+      <c r="E14" s="51" t="s">
         <v>88</v>
+      </c>
+      <c r="F14" s="51" t="s">
+        <v>103</v>
+      </c>
+      <c r="G14" s="51" t="s">
+        <v>87</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>21</v>
@@ -3803,32 +3759,22 @@
       <c r="I14" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="J14" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="K14" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="L14" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="M14" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="N14" s="9" t="s">
-        <v>113</v>
-      </c>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
     </row>
     <row r="15" spans="1:14">
-      <c r="A15" s="52"/>
+      <c r="A15" s="54"/>
       <c r="B15" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="54"/>
-      <c r="D15" s="58"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="50"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="52"/>
       <c r="H15" s="3" t="s">
         <v>22</v>
       </c>
@@ -3861,28 +3807,6 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="H6:I7"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:G6"/>
     <mergeCell ref="G12:G13"/>
     <mergeCell ref="G14:G15"/>
     <mergeCell ref="A14:A15"/>
@@ -3895,6 +3819,28 @@
     <mergeCell ref="D12:D13"/>
     <mergeCell ref="E12:E13"/>
     <mergeCell ref="F12:F13"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="H6:I7"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3910,8 +3856,8 @@
   </sheetPr>
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="H3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView showGridLines="0" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3925,9 +3871,7 @@
     <col min="7" max="7" width="11.375" customWidth="1"/>
     <col min="8" max="8" width="8.125" customWidth="1"/>
     <col min="9" max="9" width="30.375" customWidth="1"/>
-    <col min="10" max="12" width="15.375" customWidth="1"/>
-    <col min="13" max="13" width="21" customWidth="1"/>
-    <col min="14" max="14" width="15.375" customWidth="1"/>
+    <col min="10" max="14" width="15.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="15" customFormat="1" ht="15" customHeight="1">
@@ -4007,15 +3951,15 @@
         <v>8</v>
       </c>
       <c r="I6" s="66"/>
-      <c r="J6" s="69" t="s">
+      <c r="J6" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="K6" s="70"/>
-      <c r="L6" s="69" t="s">
+      <c r="K6" s="49"/>
+      <c r="L6" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="M6" s="71"/>
-      <c r="N6" s="70"/>
+      <c r="M6" s="50"/>
+      <c r="N6" s="49"/>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="62"/>
@@ -4050,26 +3994,26 @@
       </c>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="51" t="s">
+      <c r="A8" s="53" t="s">
         <v>45</v>
       </c>
       <c r="B8" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="51" t="s">
+      <c r="C8" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="D8" s="53" t="s">
+      <c r="D8" s="57" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="49" t="s">
-        <v>111</v>
-      </c>
-      <c r="F8" s="49" t="s">
-        <v>88</v>
-      </c>
-      <c r="G8" s="49" t="s">
-        <v>88</v>
+      <c r="E8" s="51" t="s">
+        <v>113</v>
+      </c>
+      <c r="F8" s="51" t="s">
+        <v>110</v>
+      </c>
+      <c r="G8" s="71" t="s">
+        <v>114</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>21</v>
@@ -4077,32 +4021,22 @@
       <c r="I8" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="J8" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="M8" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="N8" s="7" t="s">
-        <v>115</v>
-      </c>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="52"/>
+      <c r="A9" s="54"/>
       <c r="B9" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="52"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="72"/>
       <c r="H9" s="3" t="s">
         <v>22</v>
       </c>
@@ -4116,26 +4050,26 @@
       <c r="N9" s="8"/>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="51" t="s">
+      <c r="A10" s="53" t="s">
         <v>59</v>
       </c>
       <c r="B10" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="C10" s="53" t="s">
+      <c r="C10" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="D10" s="57" t="s">
+      <c r="D10" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="E10" s="49" t="s">
-        <v>89</v>
-      </c>
-      <c r="F10" s="49" t="s">
+      <c r="E10" s="51" t="s">
         <v>88</v>
       </c>
-      <c r="G10" s="49" t="s">
-        <v>88</v>
+      <c r="F10" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="G10" s="51" t="s">
+        <v>87</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>21</v>
@@ -4143,32 +4077,22 @@
       <c r="I10" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="J10" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="M10" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="N10" s="7" t="s">
-        <v>115</v>
-      </c>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="52"/>
+      <c r="A11" s="54"/>
       <c r="B11" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="54"/>
-      <c r="D11" s="58"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="50"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="52"/>
       <c r="H11" s="3" t="s">
         <v>22</v>
       </c>
@@ -4201,6 +4125,20 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I7"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="L6:N6"/>
     <mergeCell ref="A8:A9"/>
@@ -4209,20 +4147,6 @@
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="G8:G9"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I7"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/unfinished/200系_ユースケース構成.xlsx
+++ b/doc/unfinished/200系_ユースケース構成.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="2535" yWindow="0" windowWidth="17970" windowHeight="8925"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="15210" windowHeight="6345"/>
   </bookViews>
   <sheets>
     <sheet name="UC201" sheetId="4" r:id="rId1"/>
     <sheet name="UC202" sheetId="8" r:id="rId2"/>
     <sheet name="UC203" sheetId="6" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="H7:O27"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="120">
   <si>
     <t>画面ID</t>
     <rPh sb="0" eb="2">
@@ -499,6 +500,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>注文取消確認</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>CancelConfirmation.jsp</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -637,6 +642,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>OrderCancelAction</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>orderCancel</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -665,27 +674,45 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>orderNum</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>OrderListLogic</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>注文取消確認</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>OrderCancelAction</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>OrderListAction</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>orderList</t>
+    <t>ToOrderListAction</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>非ログイン時はなし</t>
+    <rPh sb="0" eb="1">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Name,MemberCode</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Name,MemberCode</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Name,MemberCode</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Name,MemberCode</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -978,7 +1005,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1093,6 +1120,67 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1101,72 +1189,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2873,8 +2895,8 @@
   </sheetPr>
   <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="H8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2968,15 +2990,15 @@
         <v>8</v>
       </c>
       <c r="I6" s="66"/>
-      <c r="J6" s="48" t="s">
+      <c r="J6" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="K6" s="49"/>
-      <c r="L6" s="48" t="s">
+      <c r="K6" s="70"/>
+      <c r="L6" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="M6" s="50"/>
-      <c r="N6" s="49"/>
+      <c r="M6" s="71"/>
+      <c r="N6" s="70"/>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="62"/>
@@ -3011,49 +3033,59 @@
       </c>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="53" t="s">
+      <c r="A8" s="51" t="s">
         <v>28</v>
       </c>
       <c r="B8" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="D8" s="57" t="s">
+      <c r="C8" s="51" t="s">
         <v>75</v>
       </c>
-      <c r="E8" s="51" t="s">
-        <v>89</v>
-      </c>
-      <c r="F8" s="69" t="s">
-        <v>87</v>
-      </c>
-      <c r="G8" s="51" t="s">
-        <v>87</v>
+      <c r="D8" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="E8" s="49" t="s">
+        <v>90</v>
+      </c>
+      <c r="F8" s="55" t="s">
+        <v>88</v>
+      </c>
+      <c r="G8" s="49" t="s">
+        <v>88</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>21</v>
       </c>
       <c r="I8" s="35" t="s">
-        <v>76</v>
-      </c>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
+        <v>77</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="54"/>
+      <c r="A9" s="52"/>
       <c r="B9" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="54"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="52"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="50"/>
       <c r="H9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3063,36 +3095,38 @@
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
       <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
+      <c r="M9" s="8" t="s">
+        <v>114</v>
+      </c>
       <c r="N9" s="8"/>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="53" t="s">
+      <c r="A10" s="51" t="s">
+        <v>79</v>
+      </c>
+      <c r="B10" s="43" t="s">
         <v>78</v>
       </c>
-      <c r="B10" s="43" t="s">
-        <v>77</v>
-      </c>
-      <c r="C10" s="53" t="s">
-        <v>81</v>
-      </c>
-      <c r="D10" s="57" t="s">
+      <c r="C10" s="51" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="51" t="s">
-        <v>94</v>
-      </c>
-      <c r="F10" s="69" t="s">
-        <v>105</v>
-      </c>
-      <c r="G10" s="51" t="s">
+      <c r="E10" s="49" t="s">
         <v>95</v>
+      </c>
+      <c r="F10" s="55" t="s">
+        <v>107</v>
+      </c>
+      <c r="G10" s="49" t="s">
+        <v>96</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>21</v>
       </c>
       <c r="I10" s="35" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
@@ -3101,20 +3135,20 @@
       <c r="N10" s="7"/>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="54"/>
+      <c r="A11" s="52"/>
       <c r="B11" s="35" t="s">
-        <v>76</v>
-      </c>
-      <c r="C11" s="54"/>
-      <c r="D11" s="58"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="70"/>
-      <c r="G11" s="52"/>
+        <v>77</v>
+      </c>
+      <c r="C11" s="52"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="50"/>
       <c r="H11" s="3" t="s">
         <v>51</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
@@ -3123,32 +3157,32 @@
       <c r="N11" s="8"/>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="53" t="s">
+      <c r="A12" s="51" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" s="43" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12" s="51" t="s">
         <v>80</v>
       </c>
-      <c r="B12" s="43" t="s">
-        <v>82</v>
-      </c>
-      <c r="C12" s="53" t="s">
-        <v>79</v>
-      </c>
-      <c r="D12" s="57" t="s">
-        <v>83</v>
-      </c>
-      <c r="E12" s="51" t="s">
+      <c r="D12" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="E12" s="49" t="s">
+        <v>93</v>
+      </c>
+      <c r="F12" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="G12" s="49" t="s">
         <v>92</v>
-      </c>
-      <c r="F12" s="45" t="s">
-        <v>104</v>
-      </c>
-      <c r="G12" s="51" t="s">
-        <v>91</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>21</v>
       </c>
       <c r="I12" s="35" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
@@ -3157,20 +3191,20 @@
       <c r="N12" s="7"/>
     </row>
     <row r="13" spans="1:14">
-      <c r="A13" s="54"/>
+      <c r="A13" s="52"/>
       <c r="B13" s="44" t="s">
-        <v>86</v>
-      </c>
-      <c r="C13" s="54"/>
-      <c r="D13" s="58"/>
-      <c r="E13" s="52"/>
+        <v>87</v>
+      </c>
+      <c r="C13" s="52"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="50"/>
       <c r="F13" s="47"/>
-      <c r="G13" s="52"/>
+      <c r="G13" s="50"/>
       <c r="H13" s="3" t="s">
         <v>51</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
@@ -3179,26 +3213,26 @@
       <c r="N13" s="8"/>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" s="53" t="s">
+      <c r="A14" s="51" t="s">
         <v>28</v>
       </c>
       <c r="B14" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="53" t="s">
+      <c r="C14" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="57" t="s">
+      <c r="D14" s="53" t="s">
         <v>63</v>
       </c>
-      <c r="E14" s="51" t="s">
-        <v>93</v>
+      <c r="E14" s="49" t="s">
+        <v>94</v>
       </c>
       <c r="F14" s="46" t="s">
-        <v>106</v>
-      </c>
-      <c r="G14" s="51" t="s">
-        <v>96</v>
+        <v>108</v>
+      </c>
+      <c r="G14" s="49" t="s">
+        <v>97</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>21</v>
@@ -3213,15 +3247,15 @@
       <c r="N14" s="7"/>
     </row>
     <row r="15" spans="1:14">
-      <c r="A15" s="54"/>
+      <c r="A15" s="52"/>
       <c r="B15" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="54"/>
-      <c r="D15" s="58"/>
-      <c r="E15" s="52"/>
+      <c r="C15" s="52"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="50"/>
       <c r="F15" s="47"/>
-      <c r="G15" s="52"/>
+      <c r="G15" s="50"/>
       <c r="H15" s="3" t="s">
         <v>51</v>
       </c>
@@ -3235,26 +3269,26 @@
       <c r="N15" s="8"/>
     </row>
     <row r="16" spans="1:14" ht="27">
-      <c r="A16" s="53" t="s">
+      <c r="A16" s="51" t="s">
         <v>30</v>
       </c>
       <c r="B16" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="53" t="s">
+      <c r="C16" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="55" t="s">
+      <c r="D16" s="57" t="s">
         <v>64</v>
       </c>
-      <c r="E16" s="51" t="s">
-        <v>90</v>
+      <c r="E16" s="49" t="s">
+        <v>91</v>
       </c>
       <c r="F16" s="46" t="s">
-        <v>107</v>
-      </c>
-      <c r="G16" s="51" t="s">
-        <v>97</v>
+        <v>109</v>
+      </c>
+      <c r="G16" s="49" t="s">
+        <v>98</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>21</v>
@@ -3269,15 +3303,15 @@
       <c r="N16" s="9"/>
     </row>
     <row r="17" spans="1:14">
-      <c r="A17" s="54"/>
+      <c r="A17" s="52"/>
       <c r="B17" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="54"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="52"/>
+      <c r="C17" s="52"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="50"/>
       <c r="F17" s="47"/>
-      <c r="G17" s="52"/>
+      <c r="G17" s="50"/>
       <c r="H17" s="3" t="s">
         <v>51</v>
       </c>
@@ -3291,26 +3325,26 @@
       <c r="N17" s="10"/>
     </row>
     <row r="18" spans="1:14">
-      <c r="A18" s="53" t="s">
+      <c r="A18" s="51" t="s">
         <v>55</v>
       </c>
       <c r="B18" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="57" t="s">
+      <c r="C18" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="D18" s="55" t="s">
+      <c r="D18" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="E18" s="51" t="s">
+      <c r="E18" s="49" t="s">
+        <v>89</v>
+      </c>
+      <c r="F18" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="F18" s="69" t="s">
-        <v>87</v>
-      </c>
-      <c r="G18" s="51" t="s">
-        <v>87</v>
+      <c r="G18" s="49" t="s">
+        <v>88</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>21</v>
@@ -3318,22 +3352,32 @@
       <c r="I18" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
+      <c r="J18" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="K18" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="L18" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="M18" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="N18" s="9" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="19" spans="1:14">
-      <c r="A19" s="54"/>
+      <c r="A19" s="52"/>
       <c r="B19" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="58"/>
-      <c r="D19" s="56"/>
-      <c r="E19" s="52"/>
-      <c r="F19" s="70"/>
-      <c r="G19" s="52"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="50"/>
       <c r="H19" s="3" t="s">
         <v>22</v>
       </c>
@@ -3366,33 +3410,6 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I7"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="L6:N6"/>
     <mergeCell ref="G16:G17"/>
@@ -3409,6 +3426,33 @@
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="E10:E11"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I7"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3424,8 +3468,8 @@
   </sheetPr>
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12:F13"/>
+    <sheetView showGridLines="0" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3519,15 +3563,15 @@
         <v>8</v>
       </c>
       <c r="I6" s="66"/>
-      <c r="J6" s="48" t="s">
+      <c r="J6" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="K6" s="49"/>
-      <c r="L6" s="48" t="s">
+      <c r="K6" s="70"/>
+      <c r="L6" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="M6" s="50"/>
-      <c r="N6" s="49"/>
+      <c r="M6" s="71"/>
+      <c r="N6" s="70"/>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="62"/>
@@ -3562,26 +3606,26 @@
       </c>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="53" t="s">
+      <c r="A8" s="51" t="s">
         <v>32</v>
       </c>
       <c r="B8" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="53" t="s">
+      <c r="C8" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="53" t="s">
+      <c r="D8" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="51" t="s">
-        <v>98</v>
-      </c>
-      <c r="F8" s="51" t="s">
-        <v>108</v>
-      </c>
-      <c r="G8" s="51" t="s">
+      <c r="E8" s="49" t="s">
         <v>99</v>
+      </c>
+      <c r="F8" s="49" t="s">
+        <v>110</v>
+      </c>
+      <c r="G8" s="49" t="s">
+        <v>100</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>21</v>
@@ -3590,23 +3634,21 @@
         <v>39</v>
       </c>
       <c r="J8" s="9"/>
-      <c r="K8" s="9" t="s">
-        <v>109</v>
-      </c>
+      <c r="K8" s="9"/>
       <c r="L8" s="9"/>
       <c r="M8" s="9"/>
       <c r="N8" s="9"/>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="54"/>
+      <c r="A9" s="52"/>
       <c r="B9" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="52"/>
-      <c r="G9" s="52"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
       <c r="H9" s="36" t="s">
         <v>51</v>
       </c>
@@ -3620,49 +3662,59 @@
       <c r="N9" s="8"/>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="53" t="s">
+      <c r="A10" s="51" t="s">
         <v>65</v>
       </c>
       <c r="B10" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="53" t="s">
+      <c r="C10" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="57" t="s">
+      <c r="D10" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="E10" s="51" t="s">
-        <v>101</v>
-      </c>
-      <c r="F10" s="51" t="s">
-        <v>87</v>
-      </c>
-      <c r="G10" s="51" t="s">
-        <v>87</v>
+      <c r="E10" s="49" t="s">
+        <v>102</v>
+      </c>
+      <c r="F10" s="49" t="s">
+        <v>88</v>
+      </c>
+      <c r="G10" s="49" t="s">
+        <v>88</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>21</v>
       </c>
       <c r="I10" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
+        <v>74</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="M10" s="48" t="s">
+        <v>118</v>
+      </c>
+      <c r="N10" s="9" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="54"/>
+      <c r="A11" s="52"/>
       <c r="B11" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="54"/>
-      <c r="D11" s="58"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="52"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
       <c r="H11" s="3" t="s">
         <v>22</v>
       </c>
@@ -3676,26 +3728,26 @@
       <c r="N11" s="8"/>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="53" t="s">
+      <c r="A12" s="51" t="s">
         <v>67</v>
       </c>
       <c r="B12" s="41" t="s">
-        <v>111</v>
-      </c>
-      <c r="C12" s="53" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="D12" s="57" t="s">
+      <c r="D12" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="E12" s="51" t="s">
-        <v>112</v>
-      </c>
-      <c r="F12" s="51" t="s">
-        <v>100</v>
-      </c>
-      <c r="G12" s="51" t="s">
-        <v>102</v>
+      <c r="E12" s="49" t="s">
+        <v>103</v>
+      </c>
+      <c r="F12" s="49" t="s">
+        <v>101</v>
+      </c>
+      <c r="G12" s="49" t="s">
+        <v>104</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>21</v>
@@ -3710,15 +3762,15 @@
       <c r="N12" s="9"/>
     </row>
     <row r="13" spans="1:14">
-      <c r="A13" s="54"/>
+      <c r="A13" s="52"/>
       <c r="B13" s="42" t="s">
-        <v>72</v>
-      </c>
-      <c r="C13" s="54"/>
-      <c r="D13" s="58"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="52"/>
+        <v>73</v>
+      </c>
+      <c r="C13" s="52"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="50"/>
       <c r="H13" s="3" t="s">
         <v>22</v>
       </c>
@@ -3732,26 +3784,26 @@
       <c r="N13" s="8"/>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" s="53" t="s">
+      <c r="A14" s="51" t="s">
         <v>66</v>
       </c>
       <c r="B14" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="C14" s="57" t="s">
+      <c r="C14" s="53" t="s">
         <v>57</v>
       </c>
-      <c r="D14" s="55" t="s">
+      <c r="D14" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="E14" s="51" t="s">
+      <c r="E14" s="49" t="s">
+        <v>89</v>
+      </c>
+      <c r="F14" s="49" t="s">
+        <v>105</v>
+      </c>
+      <c r="G14" s="49" t="s">
         <v>88</v>
-      </c>
-      <c r="F14" s="51" t="s">
-        <v>103</v>
-      </c>
-      <c r="G14" s="51" t="s">
-        <v>87</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>21</v>
@@ -3759,22 +3811,32 @@
       <c r="I14" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
+      <c r="J14" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="K14" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="L14" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="M14" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="N14" s="9" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="15" spans="1:14">
-      <c r="A15" s="54"/>
+      <c r="A15" s="52"/>
       <c r="B15" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="58"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="52"/>
-      <c r="F15" s="52"/>
-      <c r="G15" s="52"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="50"/>
       <c r="H15" s="3" t="s">
         <v>22</v>
       </c>
@@ -3807,6 +3869,28 @@
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="H6:I7"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:G6"/>
     <mergeCell ref="G12:G13"/>
     <mergeCell ref="G14:G15"/>
     <mergeCell ref="A14:A15"/>
@@ -3819,28 +3903,6 @@
     <mergeCell ref="D12:D13"/>
     <mergeCell ref="E12:E13"/>
     <mergeCell ref="F12:F13"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="H6:I7"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3856,8 +3918,8 @@
   </sheetPr>
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10:G11"/>
+    <sheetView showGridLines="0" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3951,15 +4013,15 @@
         <v>8</v>
       </c>
       <c r="I6" s="66"/>
-      <c r="J6" s="48" t="s">
+      <c r="J6" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="K6" s="49"/>
-      <c r="L6" s="48" t="s">
+      <c r="K6" s="70"/>
+      <c r="L6" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="M6" s="50"/>
-      <c r="N6" s="49"/>
+      <c r="M6" s="71"/>
+      <c r="N6" s="70"/>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="62"/>
@@ -3994,26 +4056,26 @@
       </c>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="53" t="s">
+      <c r="A8" s="51" t="s">
         <v>45</v>
       </c>
       <c r="B8" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="53" t="s">
+      <c r="C8" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="D8" s="57" t="s">
+      <c r="D8" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="51" t="s">
-        <v>113</v>
-      </c>
-      <c r="F8" s="51" t="s">
-        <v>110</v>
-      </c>
-      <c r="G8" s="71" t="s">
-        <v>114</v>
+      <c r="E8" s="49" t="s">
+        <v>111</v>
+      </c>
+      <c r="F8" s="49" t="s">
+        <v>88</v>
+      </c>
+      <c r="G8" s="49" t="s">
+        <v>88</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>21</v>
@@ -4021,22 +4083,32 @@
       <c r="I8" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
+      <c r="J8" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="54"/>
+      <c r="A9" s="52"/>
       <c r="B9" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="54"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="52"/>
-      <c r="G9" s="72"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
       <c r="H9" s="3" t="s">
         <v>22</v>
       </c>
@@ -4050,26 +4122,26 @@
       <c r="N9" s="8"/>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="53" t="s">
+      <c r="A10" s="51" t="s">
         <v>59</v>
       </c>
       <c r="B10" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="C10" s="57" t="s">
+      <c r="C10" s="53" t="s">
         <v>57</v>
       </c>
-      <c r="D10" s="55" t="s">
+      <c r="D10" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="E10" s="51" t="s">
+      <c r="E10" s="49" t="s">
+        <v>89</v>
+      </c>
+      <c r="F10" s="49" t="s">
         <v>88</v>
       </c>
-      <c r="F10" s="51" t="s">
-        <v>87</v>
-      </c>
-      <c r="G10" s="51" t="s">
-        <v>87</v>
+      <c r="G10" s="49" t="s">
+        <v>88</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>21</v>
@@ -4077,22 +4149,32 @@
       <c r="I10" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
+      <c r="J10" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="M10" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="N10" s="7" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="54"/>
+      <c r="A11" s="52"/>
       <c r="B11" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="58"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="52"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
       <c r="H11" s="3" t="s">
         <v>22</v>
       </c>
@@ -4125,12 +4207,14 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="A6:A7"/>
@@ -4139,14 +4223,12 @@
     <mergeCell ref="E6:E7"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="H6:I7"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
